--- a/Schedule/SAMPLE_WBS.xlsx
+++ b/Schedule/SAMPLE_WBS.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="95">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Biểu đồ so sánh tiền</t>
+  </si>
+  <si>
+    <t>Thông báo tiền chạm ngưỡng</t>
   </si>
 </sst>
 </file>
@@ -2026,6 +2032,156 @@
     <xf numFmtId="168" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2034,43 +2190,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2080,24 +2212,28 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2134,15 +2270,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,6 +2281,56 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,254 +2348,83 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2430,1183 +2436,7 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="337">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <fill>
         <patternFill>
@@ -4737,6 +3567,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -5292,10 +4143,10 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -5423,20 +4274,20 @@
       <c r="K2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="174" t="s">
+      <c r="L2" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="175"/>
-      <c r="N2" s="174" t="s">
+      <c r="M2" s="212"/>
+      <c r="N2" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="175"/>
+      <c r="O2" s="212"/>
       <c r="P2" s="118"/>
-      <c r="Q2" s="168">
+      <c r="Q2" s="208">
         <f ca="1">TODAY()</f>
-        <v>43293</v>
-      </c>
-      <c r="R2" s="169"/>
+        <v>43297</v>
+      </c>
+      <c r="R2" s="209"/>
       <c r="S2" s="35"/>
       <c r="T2" s="69"/>
       <c r="U2" s="30"/>
@@ -5496,21 +4347,21 @@
       <c r="BW2" s="38"/>
       <c r="BX2" s="38"/>
       <c r="BY2" s="38"/>
-      <c r="BZ2" s="162">
+      <c r="BZ2" s="202">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="163"/>
-      <c r="CB2" s="163"/>
-      <c r="CC2" s="162">
+      <c r="CA2" s="203"/>
+      <c r="CB2" s="203"/>
+      <c r="CC2" s="202">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="163"/>
-      <c r="CE2" s="163"/>
-      <c r="CF2" s="162">
+      <c r="CD2" s="203"/>
+      <c r="CE2" s="203"/>
+      <c r="CF2" s="202">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="163"/>
-      <c r="CH2" s="163"/>
+      <c r="CG2" s="203"/>
+      <c r="CH2" s="203"/>
       <c r="CI2" s="40"/>
       <c r="CJ2" s="40"/>
       <c r="CK2" s="40"/>
@@ -5568,7 +4419,7 @@
       <c r="EK2" s="40"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/12</v>
+        <v>Date： 2018/07/16</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -5580,34 +4431,34 @@
       <c r="F3" s="125"/>
       <c r="G3" s="83"/>
       <c r="H3" s="81">
-        <f>COUNTIF(R11:R80,"")</f>
-        <v>35</v>
+        <f>COUNTIF(R11:R84,"")</f>
+        <v>37</v>
       </c>
       <c r="I3" s="81">
         <f>COUNTIF(R11:R100,"=100%")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="81">
         <f>H3-I3-K3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="81">
         <f>COUNTIF(R11:R80,"=0%")</f>
         <v>15</v>
       </c>
-      <c r="L3" s="176">
+      <c r="L3" s="213">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="177"/>
-      <c r="N3" s="176">
+      <c r="M3" s="214"/>
+      <c r="N3" s="213">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="177"/>
+      <c r="O3" s="214"/>
       <c r="P3" s="136"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
       <c r="S3" s="35"/>
       <c r="T3" s="70"/>
       <c r="U3" s="107"/>
@@ -5667,21 +4518,21 @@
       <c r="BW3" s="38"/>
       <c r="BX3" s="38"/>
       <c r="BY3" s="38"/>
-      <c r="BZ3" s="165" t="s">
+      <c r="BZ3" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="166"/>
-      <c r="CB3" s="167"/>
-      <c r="CC3" s="164" t="s">
+      <c r="CA3" s="206"/>
+      <c r="CB3" s="207"/>
+      <c r="CC3" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="164"/>
-      <c r="CE3" s="164"/>
-      <c r="CF3" s="165" t="s">
+      <c r="CD3" s="204"/>
+      <c r="CE3" s="204"/>
+      <c r="CF3" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="166"/>
-      <c r="CH3" s="167"/>
+      <c r="CG3" s="206"/>
+      <c r="CH3" s="207"/>
       <c r="EL3" s="31">
         <f>B2</f>
         <v>0</v>
@@ -5865,16 +4716,16 @@
       <c r="E7" s="133"/>
       <c r="F7" s="126"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="191" t="s">
+      <c r="H7" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="193"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="224"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="138"/>
       <c r="R7" s="138"/>
@@ -5902,16 +4753,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43282</v>
       </c>
-      <c r="L8" s="171">
+      <c r="L8" s="198">
         <f>SUM(M11:M110)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="172"/>
-      <c r="N8" s="171">
+      <c r="M8" s="199"/>
+      <c r="N8" s="198">
         <f>SUM(O11:O110)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="172"/>
+      <c r="O8" s="199"/>
       <c r="P8" s="124"/>
       <c r="Q8" s="139"/>
       <c r="R8" s="140" t="str">
@@ -6257,52 +5108,52 @@
       <c r="EI8" s="88"/>
       <c r="EJ8" s="88"/>
       <c r="EK8" s="88"/>
-      <c r="EL8" s="161" t="s">
+      <c r="EL8" s="197" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="194" t="s">
+      <c r="C9" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="232" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="196" t="s">
+      <c r="H9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="197"/>
-      <c r="J9" s="189" t="s">
+      <c r="I9" s="228"/>
+      <c r="J9" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="190"/>
-      <c r="L9" s="182" t="s">
+      <c r="K9" s="235"/>
+      <c r="L9" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="183"/>
-      <c r="N9" s="188" t="s">
+      <c r="M9" s="216"/>
+      <c r="N9" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="183"/>
+      <c r="O9" s="216"/>
       <c r="P9" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="184" t="s">
+      <c r="Q9" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="185"/>
+      <c r="R9" s="218"/>
       <c r="S9" s="29">
         <v>43282</v>
       </c>
@@ -6794,15 +5645,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="161"/>
+      <c r="EL9" s="197"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="181"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="233"/>
       <c r="F10" s="144"/>
-      <c r="G10" s="198"/>
+      <c r="G10" s="236"/>
       <c r="H10" s="112" t="s">
         <v>20</v>
       </c>
@@ -6828,8 +5679,8 @@
         <v>5</v>
       </c>
       <c r="P10" s="144"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="220"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -7160,46 +6011,46 @@
       <c r="EI10" s="89"/>
       <c r="EJ10" s="89"/>
       <c r="EK10" s="89"/>
-      <c r="EL10" s="161"/>
+      <c r="EL10" s="197"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="229">
+      <c r="D11" s="145">
         <v>1</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="211" t="s">
+      <c r="F11" s="141"/>
+      <c r="G11" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="211">
+      <c r="H11" s="147">
         <v>43282</v>
       </c>
-      <c r="I11" s="211">
+      <c r="I11" s="147">
         <v>43282</v>
       </c>
-      <c r="J11" s="211">
+      <c r="J11" s="147">
         <v>43282</v>
       </c>
-      <c r="K11" s="211">
+      <c r="K11" s="147">
         <v>43282</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="210" t="s">
+      <c r="L11" s="151"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="236">
+      <c r="Q11" s="164"/>
+      <c r="R11" s="160">
         <v>1</v>
       </c>
       <c r="S11" s="84" t="s">
@@ -7330,23 +6181,23 @@
       <c r="EL11" s="95"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="230"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="221"/>
-      <c r="K12" s="221"/>
-      <c r="L12" s="223"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="223"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="226"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="163"/>
       <c r="S12" s="84" t="s">
         <v>92</v>
       </c>
@@ -7475,39 +6326,39 @@
       <c r="EL12" s="96"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229">
+      <c r="B13" s="239"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="145">
         <v>2</v>
       </c>
-      <c r="E13" s="209" t="s">
+      <c r="E13" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="210"/>
-      <c r="G13" s="211" t="s">
+      <c r="F13" s="141"/>
+      <c r="G13" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="211">
+      <c r="H13" s="147">
         <v>43283</v>
       </c>
-      <c r="I13" s="211">
+      <c r="I13" s="147">
         <v>43283</v>
       </c>
-      <c r="J13" s="211">
+      <c r="J13" s="147">
         <v>43283</v>
       </c>
-      <c r="K13" s="211">
+      <c r="K13" s="147">
         <v>43283</v>
       </c>
-      <c r="L13" s="213"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="210" t="s">
+      <c r="L13" s="151"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="215"/>
-      <c r="R13" s="236">
+      <c r="Q13" s="164"/>
+      <c r="R13" s="160">
         <v>1</v>
       </c>
       <c r="S13" s="84"/>
@@ -7638,23 +6489,23 @@
       <c r="EL13" s="95"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="230"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="223"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="223"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="225"/>
-      <c r="R14" s="226"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="163"/>
       <c r="S14" s="84"/>
       <c r="T14" s="85" t="s">
         <v>92</v>
@@ -7783,39 +6634,39 @@
       <c r="EL14" s="96"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229">
+      <c r="B15" s="239"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="145">
         <v>3</v>
       </c>
-      <c r="E15" s="209" t="s">
+      <c r="E15" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="210"/>
-      <c r="G15" s="211" t="s">
+      <c r="F15" s="141"/>
+      <c r="G15" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="211">
+      <c r="H15" s="147">
         <v>43284</v>
       </c>
-      <c r="I15" s="211">
+      <c r="I15" s="147">
         <v>43284</v>
       </c>
-      <c r="J15" s="211">
+      <c r="J15" s="147">
         <v>43284</v>
       </c>
-      <c r="K15" s="211">
+      <c r="K15" s="147">
         <v>43284</v>
       </c>
-      <c r="L15" s="213"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="210" t="s">
+      <c r="L15" s="151"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="215"/>
-      <c r="R15" s="236">
+      <c r="Q15" s="164"/>
+      <c r="R15" s="160">
         <v>1</v>
       </c>
       <c r="S15" s="84"/>
@@ -7946,23 +6797,23 @@
       <c r="EL15" s="95"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="230"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="225"/>
-      <c r="R16" s="226"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="163"/>
       <c r="S16" s="84"/>
       <c r="T16" s="85"/>
       <c r="U16" s="85" t="s">
@@ -8091,39 +6942,39 @@
       <c r="EL16" s="96"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229">
+      <c r="B17" s="239"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="145">
         <v>4</v>
       </c>
-      <c r="E17" s="209" t="s">
+      <c r="E17" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="210"/>
-      <c r="G17" s="211" t="s">
+      <c r="F17" s="141"/>
+      <c r="G17" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="211">
+      <c r="H17" s="147">
         <v>43285</v>
       </c>
-      <c r="I17" s="211">
+      <c r="I17" s="147">
         <v>43285</v>
       </c>
-      <c r="J17" s="211">
+      <c r="J17" s="147">
         <v>43285</v>
       </c>
-      <c r="K17" s="211">
+      <c r="K17" s="147">
         <v>43285</v>
       </c>
-      <c r="L17" s="213"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="210" t="s">
+      <c r="L17" s="151"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="215"/>
-      <c r="R17" s="236">
+      <c r="Q17" s="164"/>
+      <c r="R17" s="160">
         <v>1</v>
       </c>
       <c r="S17" s="84"/>
@@ -8254,23 +7105,23 @@
       <c r="EL17" s="95"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="230"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="225"/>
-      <c r="R18" s="226"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="163"/>
       <c r="S18" s="84"/>
       <c r="T18" s="85"/>
       <c r="U18" s="85"/>
@@ -8399,41 +7250,41 @@
       <c r="EL18" s="96"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="227"/>
-      <c r="C19" s="228" t="s">
+      <c r="B19" s="239"/>
+      <c r="C19" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="229">
+      <c r="D19" s="145">
         <v>1</v>
       </c>
-      <c r="E19" s="209" t="s">
+      <c r="E19" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="210"/>
-      <c r="G19" s="211" t="s">
+      <c r="F19" s="141"/>
+      <c r="G19" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="211">
+      <c r="H19" s="147">
         <v>43286</v>
       </c>
-      <c r="I19" s="211">
+      <c r="I19" s="147">
         <v>43286</v>
       </c>
-      <c r="J19" s="211">
+      <c r="J19" s="147">
         <v>43286</v>
       </c>
-      <c r="K19" s="211">
+      <c r="K19" s="147">
         <v>43286</v>
       </c>
-      <c r="L19" s="213"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="210" t="s">
+      <c r="L19" s="151"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="215"/>
-      <c r="R19" s="236">
+      <c r="Q19" s="164"/>
+      <c r="R19" s="160">
         <v>1</v>
       </c>
       <c r="S19" s="84"/>
@@ -8564,23 +7415,23 @@
       <c r="EL19" s="95"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="230"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="223"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="223"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="226"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="163"/>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
@@ -8709,37 +7560,37 @@
       <c r="EL20" s="96"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="227"/>
-      <c r="C21" s="228" t="s">
+      <c r="B21" s="239"/>
+      <c r="C21" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="229">
+      <c r="D21" s="145">
         <v>1</v>
       </c>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="210"/>
-      <c r="G21" s="211" t="s">
+      <c r="F21" s="141"/>
+      <c r="G21" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="211">
+      <c r="H21" s="147">
         <v>43295</v>
       </c>
-      <c r="I21" s="211">
+      <c r="I21" s="147">
         <v>43295</v>
       </c>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="210" t="s">
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="215"/>
-      <c r="R21" s="236">
+      <c r="Q21" s="164"/>
+      <c r="R21" s="160">
         <v>0</v>
       </c>
       <c r="S21" s="84"/>
@@ -8758,7 +7609,9 @@
       <c r="AF21" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="AG21" s="86"/>
+      <c r="AG21" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AH21" s="110"/>
       <c r="AI21" s="110"/>
       <c r="AJ21" s="106"/>
@@ -8870,23 +7723,23 @@
       <c r="EL21" s="95"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="230"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="225"/>
-      <c r="R22" s="226"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="163"/>
       <c r="S22" s="84"/>
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
@@ -8903,7 +7756,9 @@
       <c r="AF22" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="AG22" s="85"/>
+      <c r="AG22" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AH22" s="111"/>
       <c r="AI22" s="111"/>
       <c r="AJ22" s="105"/>
@@ -9015,35 +7870,35 @@
       <c r="EL22" s="96"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="227"/>
-      <c r="C23" s="238"/>
-      <c r="D23" s="232">
+      <c r="B23" s="239"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="157">
         <v>2</v>
       </c>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="210"/>
-      <c r="G23" s="211" t="s">
+      <c r="F23" s="141"/>
+      <c r="G23" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="211">
+      <c r="H23" s="147">
         <v>43296</v>
       </c>
-      <c r="I23" s="211">
+      <c r="I23" s="147">
         <v>43296</v>
       </c>
-      <c r="J23" s="212"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="210" t="s">
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="236">
+      <c r="Q23" s="164"/>
+      <c r="R23" s="160">
         <v>0</v>
       </c>
       <c r="S23" s="84"/>
@@ -9063,7 +7918,9 @@
       <c r="AG23" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="AH23" s="110"/>
+      <c r="AH23" s="110" t="s">
+        <v>92</v>
+      </c>
       <c r="AI23" s="110"/>
       <c r="AJ23" s="106"/>
       <c r="AK23" s="106"/>
@@ -9174,23 +8031,23 @@
       <c r="EL23" s="95"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="230"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="222"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="237"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="161"/>
       <c r="S24" s="84"/>
       <c r="T24" s="85"/>
       <c r="U24" s="85"/>
@@ -9208,7 +8065,9 @@
       <c r="AG24" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="AH24" s="111"/>
+      <c r="AH24" s="111" t="s">
+        <v>92</v>
+      </c>
       <c r="AI24" s="111"/>
       <c r="AJ24" s="105"/>
       <c r="AK24" s="105"/>
@@ -9319,37 +8178,37 @@
       <c r="EL24" s="96"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="227"/>
-      <c r="C25" s="238" t="s">
+      <c r="B25" s="239"/>
+      <c r="C25" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="155">
         <v>1</v>
       </c>
-      <c r="E25" s="209" t="s">
+      <c r="E25" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="210"/>
-      <c r="G25" s="211" t="s">
+      <c r="F25" s="141"/>
+      <c r="G25" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="211">
+      <c r="H25" s="147">
         <v>43297</v>
       </c>
-      <c r="I25" s="211">
+      <c r="I25" s="147">
         <v>43297</v>
       </c>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="214"/>
-      <c r="P25" s="210" t="s">
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="236">
+      <c r="Q25" s="164"/>
+      <c r="R25" s="160">
         <v>0</v>
       </c>
       <c r="S25" s="84"/>
@@ -9480,23 +8339,23 @@
       <c r="EL25" s="95"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="230"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="223"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="223"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="225"/>
-      <c r="R26" s="237"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="161"/>
       <c r="S26" s="84"/>
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
@@ -9625,35 +8484,35 @@
       <c r="EL26" s="96"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="227"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="234">
+      <c r="B27" s="239"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="155">
         <v>2</v>
       </c>
-      <c r="E27" s="209" t="s">
+      <c r="E27" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="210"/>
-      <c r="G27" s="211" t="s">
+      <c r="F27" s="141"/>
+      <c r="G27" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="211">
+      <c r="H27" s="147">
         <v>43298</v>
       </c>
-      <c r="I27" s="211">
+      <c r="I27" s="147">
         <v>43298</v>
       </c>
-      <c r="J27" s="212"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="214"/>
-      <c r="P27" s="210" t="s">
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q27" s="215"/>
-      <c r="R27" s="236">
+      <c r="Q27" s="164"/>
+      <c r="R27" s="160">
         <v>0</v>
       </c>
       <c r="S27" s="84"/>
@@ -9672,9 +8531,7 @@
       <c r="AF27" s="86"/>
       <c r="AG27" s="86"/>
       <c r="AH27" s="110"/>
-      <c r="AI27" s="110" t="s">
-        <v>92</v>
-      </c>
+      <c r="AI27" s="110"/>
       <c r="AJ27" s="106"/>
       <c r="AK27" s="106"/>
       <c r="AL27" s="106"/>
@@ -9784,23 +8641,23 @@
       <c r="EL27" s="95"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="230"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="222"/>
-      <c r="K28" s="222"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="225"/>
-      <c r="R28" s="237"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="161"/>
       <c r="S28" s="84"/>
       <c r="T28" s="85"/>
       <c r="U28" s="85"/>
@@ -9817,9 +8674,7 @@
       <c r="AF28" s="85"/>
       <c r="AG28" s="85"/>
       <c r="AH28" s="111"/>
-      <c r="AI28" s="111" t="s">
-        <v>92</v>
-      </c>
+      <c r="AI28" s="111"/>
       <c r="AJ28" s="105"/>
       <c r="AK28" s="105"/>
       <c r="AL28" s="105"/>
@@ -9929,37 +8784,37 @@
       <c r="EL28" s="96"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="238" t="s">
+      <c r="B29" s="239"/>
+      <c r="C29" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="232">
+      <c r="D29" s="157">
         <v>1</v>
       </c>
-      <c r="E29" s="209" t="s">
+      <c r="E29" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="210"/>
-      <c r="G29" s="211" t="s">
+      <c r="F29" s="141"/>
+      <c r="G29" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="211">
+      <c r="H29" s="147">
         <v>43299</v>
       </c>
-      <c r="I29" s="211">
+      <c r="I29" s="147">
         <v>43299</v>
       </c>
-      <c r="J29" s="212"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="214"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="214"/>
-      <c r="P29" s="210" t="s">
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="215"/>
-      <c r="R29" s="236">
+      <c r="Q29" s="164"/>
+      <c r="R29" s="160">
         <v>0</v>
       </c>
       <c r="S29" s="84"/>
@@ -9979,9 +8834,7 @@
       <c r="AG29" s="86"/>
       <c r="AH29" s="110"/>
       <c r="AI29" s="110"/>
-      <c r="AJ29" s="106" t="s">
-        <v>92</v>
-      </c>
+      <c r="AJ29" s="106"/>
       <c r="AK29" s="106"/>
       <c r="AL29" s="106"/>
       <c r="AM29" s="86"/>
@@ -10090,23 +8943,23 @@
       <c r="EL29" s="95"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="230"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="222"/>
-      <c r="K30" s="222"/>
-      <c r="L30" s="223"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="223"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="225"/>
-      <c r="R30" s="237"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="161"/>
       <c r="S30" s="84"/>
       <c r="T30" s="85"/>
       <c r="U30" s="85"/>
@@ -10124,9 +8977,7 @@
       <c r="AG30" s="85"/>
       <c r="AH30" s="111"/>
       <c r="AI30" s="111"/>
-      <c r="AJ30" s="105" t="s">
-        <v>92</v>
-      </c>
+      <c r="AJ30" s="105"/>
       <c r="AK30" s="105"/>
       <c r="AL30" s="105"/>
       <c r="AM30" s="85"/>
@@ -10235,35 +9086,35 @@
       <c r="EL30" s="96"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="227"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="232">
+      <c r="B31" s="239"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="157">
         <v>2</v>
       </c>
-      <c r="E31" s="209" t="s">
+      <c r="E31" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="211" t="s">
+      <c r="F31" s="141"/>
+      <c r="G31" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="211">
+      <c r="H31" s="147">
         <v>43300</v>
       </c>
-      <c r="I31" s="211">
+      <c r="I31" s="147">
         <v>43300</v>
       </c>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="214"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="210" t="s">
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q31" s="215"/>
-      <c r="R31" s="236">
+      <c r="Q31" s="164"/>
+      <c r="R31" s="160">
         <v>0</v>
       </c>
       <c r="S31" s="84"/>
@@ -10284,9 +9135,7 @@
       <c r="AH31" s="110"/>
       <c r="AI31" s="110"/>
       <c r="AJ31" s="106"/>
-      <c r="AK31" s="106" t="s">
-        <v>92</v>
-      </c>
+      <c r="AK31" s="106"/>
       <c r="AL31" s="106"/>
       <c r="AM31" s="86"/>
       <c r="AN31" s="86"/>
@@ -10394,23 +9243,23 @@
       <c r="EL31" s="95"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="230"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="222"/>
-      <c r="K32" s="222"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="223"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="237"/>
+      <c r="B32" s="240"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="161"/>
       <c r="S32" s="84"/>
       <c r="T32" s="85"/>
       <c r="U32" s="85"/>
@@ -10429,9 +9278,7 @@
       <c r="AH32" s="111"/>
       <c r="AI32" s="111"/>
       <c r="AJ32" s="105"/>
-      <c r="AK32" s="105" t="s">
-        <v>92</v>
-      </c>
+      <c r="AK32" s="105"/>
       <c r="AL32" s="105"/>
       <c r="AM32" s="85"/>
       <c r="AN32" s="85"/>
@@ -10539,45 +9386,45 @@
       <c r="EL32" s="96"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="228" t="s">
+      <c r="C33" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="229">
+      <c r="D33" s="145">
         <v>1</v>
       </c>
-      <c r="E33" s="209" t="s">
+      <c r="E33" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="210" t="s">
+      <c r="F33" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="211" t="s">
+      <c r="G33" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="211">
+      <c r="H33" s="147">
         <v>43282</v>
       </c>
-      <c r="I33" s="211">
+      <c r="I33" s="147">
         <v>43282</v>
       </c>
-      <c r="J33" s="211">
+      <c r="J33" s="147">
         <v>43282</v>
       </c>
-      <c r="K33" s="211">
+      <c r="K33" s="147">
         <v>43282</v>
       </c>
-      <c r="L33" s="213"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="210" t="s">
+      <c r="L33" s="151"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="215"/>
-      <c r="R33" s="236">
+      <c r="Q33" s="164"/>
+      <c r="R33" s="160">
         <v>1</v>
       </c>
       <c r="S33" s="106" t="s">
@@ -10708,23 +9555,23 @@
       <c r="EL33" s="95"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="230"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="223"/>
-      <c r="M34" s="224"/>
-      <c r="N34" s="223"/>
-      <c r="O34" s="224"/>
-      <c r="P34" s="220"/>
-      <c r="Q34" s="225"/>
-      <c r="R34" s="226"/>
+      <c r="B34" s="240"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="142"/>
+      <c r="Q34" s="165"/>
+      <c r="R34" s="163"/>
       <c r="S34" s="105" t="s">
         <v>92</v>
       </c>
@@ -10853,37 +9700,37 @@
       <c r="EL34" s="96"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="227"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="210" t="s">
+      <c r="B35" s="239"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="211" t="s">
+      <c r="G35" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="211">
+      <c r="H35" s="147">
         <v>43282</v>
       </c>
-      <c r="I35" s="211">
+      <c r="I35" s="147">
         <v>43282</v>
       </c>
-      <c r="J35" s="211">
+      <c r="J35" s="147">
         <v>43282</v>
       </c>
-      <c r="K35" s="211">
+      <c r="K35" s="147">
         <v>43282</v>
       </c>
-      <c r="L35" s="213"/>
-      <c r="M35" s="214"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="214"/>
-      <c r="P35" s="210" t="s">
+      <c r="L35" s="151"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="215"/>
-      <c r="R35" s="236">
+      <c r="Q35" s="164"/>
+      <c r="R35" s="160">
         <v>1</v>
       </c>
       <c r="S35" s="106" t="s">
@@ -11014,23 +9861,23 @@
       <c r="EL35" s="95"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="230"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="221"/>
-      <c r="H36" s="221"/>
-      <c r="I36" s="221"/>
-      <c r="J36" s="221"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="223"/>
-      <c r="M36" s="224"/>
-      <c r="N36" s="223"/>
-      <c r="O36" s="224"/>
-      <c r="P36" s="220"/>
-      <c r="Q36" s="225"/>
-      <c r="R36" s="226"/>
+      <c r="B36" s="240"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="142"/>
+      <c r="Q36" s="165"/>
+      <c r="R36" s="163"/>
       <c r="S36" s="105" t="s">
         <v>92</v>
       </c>
@@ -11159,37 +10006,37 @@
       <c r="EL36" s="96"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="210" t="s">
+      <c r="B37" s="239"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="211" t="s">
+      <c r="G37" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="211">
+      <c r="H37" s="147">
         <v>43282</v>
       </c>
-      <c r="I37" s="211">
+      <c r="I37" s="147">
         <v>43282</v>
       </c>
-      <c r="J37" s="211">
+      <c r="J37" s="147">
         <v>43282</v>
       </c>
-      <c r="K37" s="211">
+      <c r="K37" s="147">
         <v>43282</v>
       </c>
-      <c r="L37" s="213"/>
-      <c r="M37" s="214"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="214"/>
-      <c r="P37" s="210" t="s">
+      <c r="L37" s="151"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="215"/>
-      <c r="R37" s="236">
+      <c r="Q37" s="164"/>
+      <c r="R37" s="160">
         <v>1</v>
       </c>
       <c r="S37" s="106" t="s">
@@ -11320,23 +10167,23 @@
       <c r="EL37" s="95"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="230"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="223"/>
-      <c r="M38" s="224"/>
-      <c r="N38" s="223"/>
-      <c r="O38" s="224"/>
-      <c r="P38" s="220"/>
-      <c r="Q38" s="225"/>
-      <c r="R38" s="226"/>
+      <c r="B38" s="240"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="142"/>
+      <c r="Q38" s="165"/>
+      <c r="R38" s="163"/>
       <c r="S38" s="105" t="s">
         <v>92</v>
       </c>
@@ -11465,37 +10312,37 @@
       <c r="EL38" s="96"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="210" t="s">
+      <c r="B39" s="239"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="211" t="s">
+      <c r="G39" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="211">
+      <c r="H39" s="147">
         <v>43282</v>
       </c>
-      <c r="I39" s="211">
+      <c r="I39" s="147">
         <v>43282</v>
       </c>
-      <c r="J39" s="211">
+      <c r="J39" s="147">
         <v>43282</v>
       </c>
-      <c r="K39" s="211">
+      <c r="K39" s="147">
         <v>43282</v>
       </c>
-      <c r="L39" s="213"/>
-      <c r="M39" s="214"/>
-      <c r="N39" s="213"/>
-      <c r="O39" s="214"/>
-      <c r="P39" s="210" t="s">
+      <c r="L39" s="151"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q39" s="215"/>
-      <c r="R39" s="236">
+      <c r="Q39" s="164"/>
+      <c r="R39" s="160">
         <v>1</v>
       </c>
       <c r="S39" s="106" t="s">
@@ -11626,23 +10473,23 @@
       <c r="EL39" s="95"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="230"/>
-      <c r="C40" s="228"/>
-      <c r="D40" s="233"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="223"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="224"/>
-      <c r="P40" s="220"/>
-      <c r="Q40" s="225"/>
-      <c r="R40" s="226"/>
+      <c r="B40" s="240"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="142"/>
+      <c r="Q40" s="165"/>
+      <c r="R40" s="163"/>
       <c r="S40" s="105" t="s">
         <v>92</v>
       </c>
@@ -11771,39 +10618,39 @@
       <c r="EL40" s="96"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="206"/>
-      <c r="C41" s="228"/>
-      <c r="D41" s="229">
+      <c r="B41" s="243"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="145">
         <v>2</v>
       </c>
-      <c r="E41" s="209" t="s">
+      <c r="E41" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="210"/>
-      <c r="G41" s="211" t="s">
+      <c r="F41" s="141"/>
+      <c r="G41" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="211">
+      <c r="H41" s="147">
         <v>43283</v>
       </c>
-      <c r="I41" s="211">
+      <c r="I41" s="147">
         <v>43283</v>
       </c>
-      <c r="J41" s="211">
+      <c r="J41" s="147">
         <v>43283</v>
       </c>
-      <c r="K41" s="211">
+      <c r="K41" s="147">
         <v>43283</v>
       </c>
-      <c r="L41" s="213"/>
-      <c r="M41" s="214"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="214"/>
-      <c r="P41" s="210" t="s">
+      <c r="L41" s="151"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="215"/>
-      <c r="R41" s="236">
+      <c r="Q41" s="164"/>
+      <c r="R41" s="160">
         <v>1</v>
       </c>
       <c r="S41" s="84"/>
@@ -11821,8 +10668,12 @@
       <c r="AC41" s="86"/>
       <c r="AD41" s="86"/>
       <c r="AE41" s="86"/>
-      <c r="AF41" s="86"/>
-      <c r="AG41" s="86"/>
+      <c r="AF41" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG41" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AH41" s="110"/>
       <c r="AI41" s="110"/>
       <c r="AJ41" s="106"/>
@@ -11934,23 +10785,23 @@
       <c r="EL41" s="95"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="217"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="223"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="223"/>
-      <c r="O42" s="224"/>
-      <c r="P42" s="220"/>
-      <c r="Q42" s="225"/>
-      <c r="R42" s="226"/>
+      <c r="B42" s="244"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="165"/>
+      <c r="R42" s="163"/>
       <c r="S42" s="84"/>
       <c r="T42" s="105" t="s">
         <v>92</v>
@@ -11966,8 +10817,12 @@
       <c r="AC42" s="85"/>
       <c r="AD42" s="85"/>
       <c r="AE42" s="85"/>
-      <c r="AF42" s="85"/>
-      <c r="AG42" s="85"/>
+      <c r="AF42" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG42" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AH42" s="111"/>
       <c r="AI42" s="111"/>
       <c r="AJ42" s="105"/>
@@ -12079,39 +10934,39 @@
       <c r="EL42" s="96"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="206"/>
-      <c r="C43" s="228"/>
-      <c r="D43" s="229">
+      <c r="B43" s="243"/>
+      <c r="C43" s="229"/>
+      <c r="D43" s="145">
         <v>3</v>
       </c>
-      <c r="E43" s="209" t="s">
+      <c r="E43" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="210"/>
-      <c r="G43" s="211" t="s">
+      <c r="F43" s="141"/>
+      <c r="G43" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="211">
+      <c r="H43" s="147">
         <v>43284</v>
       </c>
-      <c r="I43" s="211">
+      <c r="I43" s="147">
         <v>43284</v>
       </c>
-      <c r="J43" s="211">
+      <c r="J43" s="147">
         <v>43284</v>
       </c>
-      <c r="K43" s="211">
+      <c r="K43" s="147">
         <v>43284</v>
       </c>
-      <c r="L43" s="213"/>
-      <c r="M43" s="214"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="210" t="s">
+      <c r="L43" s="151"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="215"/>
-      <c r="R43" s="236">
+      <c r="Q43" s="164"/>
+      <c r="R43" s="160">
         <v>1</v>
       </c>
       <c r="S43" s="84"/>
@@ -12242,23 +11097,23 @@
       <c r="EL43" s="95"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="217"/>
-      <c r="C44" s="228"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="221"/>
-      <c r="I44" s="221"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="224"/>
-      <c r="N44" s="223"/>
-      <c r="O44" s="224"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="225"/>
-      <c r="R44" s="226"/>
+      <c r="B44" s="244"/>
+      <c r="C44" s="229"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="165"/>
+      <c r="R44" s="163"/>
       <c r="S44" s="84"/>
       <c r="T44" s="85"/>
       <c r="U44" s="105" t="s">
@@ -12387,38 +11242,40 @@
       <c r="EL44" s="96"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
-      <c r="D45" s="242">
+      <c r="B45" s="245"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="248">
         <v>4</v>
       </c>
-      <c r="E45" s="243" t="s">
+      <c r="E45" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="244"/>
-      <c r="G45" s="245" t="s">
+      <c r="F45" s="167"/>
+      <c r="G45" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="245">
+      <c r="H45" s="169">
         <v>43291</v>
       </c>
-      <c r="I45" s="245">
+      <c r="I45" s="169">
         <v>43293</v>
       </c>
-      <c r="J45" s="245">
+      <c r="J45" s="169">
         <v>43291</v>
       </c>
-      <c r="K45" s="245"/>
-      <c r="L45" s="246"/>
-      <c r="M45" s="247"/>
-      <c r="N45" s="246"/>
-      <c r="O45" s="247"/>
-      <c r="P45" s="244" t="s">
+      <c r="K45" s="169">
+        <v>43294</v>
+      </c>
+      <c r="L45" s="171"/>
+      <c r="M45" s="173"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="173"/>
+      <c r="P45" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="Q45" s="248"/>
-      <c r="R45" s="249">
-        <v>0.8</v>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="177">
+        <v>1</v>
       </c>
       <c r="S45" s="84"/>
       <c r="T45" s="87"/>
@@ -12436,7 +11293,9 @@
         <v>92</v>
       </c>
       <c r="AD45" s="86"/>
-      <c r="AE45" s="86"/>
+      <c r="AE45" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AF45" s="86"/>
       <c r="AG45" s="86"/>
       <c r="AH45" s="110"/>
@@ -12550,23 +11409,23 @@
       <c r="EL45" s="95"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="250"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="251"/>
-      <c r="E46" s="252"/>
-      <c r="F46" s="253"/>
-      <c r="G46" s="254"/>
-      <c r="H46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
-      <c r="L46" s="255"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="255"/>
-      <c r="O46" s="256"/>
-      <c r="P46" s="253"/>
-      <c r="Q46" s="257"/>
-      <c r="R46" s="258"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="174"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="178"/>
       <c r="S46" s="84"/>
       <c r="T46" s="85"/>
       <c r="U46" s="85"/>
@@ -12583,7 +11442,9 @@
         <v>92</v>
       </c>
       <c r="AD46" s="85"/>
-      <c r="AE46" s="85"/>
+      <c r="AE46" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AF46" s="85"/>
       <c r="AG46" s="85"/>
       <c r="AH46" s="111"/>
@@ -12697,41 +11558,41 @@
       <c r="EL46" s="96"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="206"/>
-      <c r="C47" s="228" t="s">
+      <c r="B47" s="243"/>
+      <c r="C47" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="229">
+      <c r="D47" s="145">
         <v>1</v>
       </c>
-      <c r="E47" s="209" t="s">
+      <c r="E47" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="210"/>
-      <c r="G47" s="211" t="s">
+      <c r="F47" s="141"/>
+      <c r="G47" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="211">
+      <c r="H47" s="147">
         <v>43286</v>
       </c>
-      <c r="I47" s="211">
+      <c r="I47" s="147">
         <v>43286</v>
       </c>
-      <c r="J47" s="211">
+      <c r="J47" s="147">
         <v>43286</v>
       </c>
-      <c r="K47" s="211">
+      <c r="K47" s="147">
         <v>43286</v>
       </c>
-      <c r="L47" s="213"/>
-      <c r="M47" s="214"/>
-      <c r="N47" s="213"/>
-      <c r="O47" s="214"/>
-      <c r="P47" s="210" t="s">
+      <c r="L47" s="151"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="153"/>
+      <c r="P47" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="215"/>
-      <c r="R47" s="236">
+      <c r="Q47" s="164"/>
+      <c r="R47" s="160">
         <v>1</v>
       </c>
       <c r="S47" s="84"/>
@@ -12862,23 +11723,23 @@
       <c r="EL47" s="95"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="217"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="220"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="221"/>
-      <c r="K48" s="221"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="223"/>
-      <c r="O48" s="224"/>
-      <c r="P48" s="220"/>
-      <c r="Q48" s="225"/>
-      <c r="R48" s="226"/>
+      <c r="B48" s="244"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="165"/>
+      <c r="R48" s="163"/>
       <c r="S48" s="84"/>
       <c r="T48" s="85"/>
       <c r="U48" s="85"/>
@@ -13007,37 +11868,39 @@
       <c r="EL48" s="96"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="206"/>
-      <c r="C49" s="228" t="s">
+      <c r="B49" s="243"/>
+      <c r="C49" s="229" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="229">
+      <c r="D49" s="145">
         <v>1</v>
       </c>
-      <c r="E49" s="209" t="s">
+      <c r="E49" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="210"/>
-      <c r="G49" s="211" t="s">
+      <c r="F49" s="141"/>
+      <c r="G49" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="211">
+      <c r="H49" s="147">
         <v>43295</v>
       </c>
-      <c r="I49" s="211">
+      <c r="I49" s="147">
         <v>43295</v>
       </c>
-      <c r="J49" s="212"/>
-      <c r="K49" s="212"/>
-      <c r="L49" s="213"/>
-      <c r="M49" s="214"/>
-      <c r="N49" s="213"/>
-      <c r="O49" s="214"/>
-      <c r="P49" s="210" t="s">
+      <c r="J49" s="149">
+        <v>43295</v>
+      </c>
+      <c r="K49" s="149"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q49" s="215"/>
-      <c r="R49" s="236">
+      <c r="Q49" s="164"/>
+      <c r="R49" s="160">
         <v>0</v>
       </c>
       <c r="S49" s="84"/>
@@ -13053,8 +11916,12 @@
       <c r="AC49" s="86"/>
       <c r="AD49" s="86"/>
       <c r="AE49" s="86"/>
-      <c r="AF49" s="86"/>
-      <c r="AG49" s="86"/>
+      <c r="AF49" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG49" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AH49" s="110"/>
       <c r="AI49" s="110"/>
       <c r="AJ49" s="106"/>
@@ -13166,23 +12033,23 @@
       <c r="EL49" s="95"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="217"/>
-      <c r="C50" s="228"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="220"/>
-      <c r="G50" s="221"/>
-      <c r="H50" s="221"/>
-      <c r="I50" s="221"/>
-      <c r="J50" s="222"/>
-      <c r="K50" s="222"/>
-      <c r="L50" s="223"/>
-      <c r="M50" s="224"/>
-      <c r="N50" s="223"/>
-      <c r="O50" s="224"/>
-      <c r="P50" s="220"/>
-      <c r="Q50" s="225"/>
-      <c r="R50" s="226"/>
+      <c r="B50" s="244"/>
+      <c r="C50" s="229"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="142"/>
+      <c r="Q50" s="165"/>
+      <c r="R50" s="163"/>
       <c r="S50" s="84"/>
       <c r="T50" s="85"/>
       <c r="U50" s="85"/>
@@ -13196,8 +12063,12 @@
       <c r="AC50" s="85"/>
       <c r="AD50" s="85"/>
       <c r="AE50" s="85"/>
-      <c r="AF50" s="85"/>
-      <c r="AG50" s="85"/>
+      <c r="AF50" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG50" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AH50" s="111"/>
       <c r="AI50" s="111"/>
       <c r="AJ50" s="105"/>
@@ -13309,35 +12180,37 @@
       <c r="EL50" s="96"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="206"/>
-      <c r="C51" s="238"/>
-      <c r="D51" s="232">
+      <c r="B51" s="243"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="157">
         <v>2</v>
       </c>
-      <c r="E51" s="209" t="s">
+      <c r="E51" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="210"/>
-      <c r="G51" s="211" t="s">
+      <c r="F51" s="141"/>
+      <c r="G51" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="211">
+      <c r="H51" s="147">
         <v>43296</v>
       </c>
-      <c r="I51" s="211">
+      <c r="I51" s="147">
         <v>43296</v>
       </c>
-      <c r="J51" s="212"/>
-      <c r="K51" s="212"/>
-      <c r="L51" s="213"/>
-      <c r="M51" s="214"/>
-      <c r="N51" s="213"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="210" t="s">
+      <c r="J51" s="149">
+        <v>43296</v>
+      </c>
+      <c r="K51" s="149"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="153"/>
+      <c r="P51" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q51" s="215"/>
-      <c r="R51" s="236">
+      <c r="Q51" s="164"/>
+      <c r="R51" s="160">
         <v>0</v>
       </c>
       <c r="S51" s="84"/>
@@ -13354,8 +12227,12 @@
       <c r="AD51" s="86"/>
       <c r="AE51" s="86"/>
       <c r="AF51" s="86"/>
-      <c r="AG51" s="86"/>
-      <c r="AH51" s="110"/>
+      <c r="AG51" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH51" s="110" t="s">
+        <v>92</v>
+      </c>
       <c r="AI51" s="110"/>
       <c r="AJ51" s="106"/>
       <c r="AK51" s="106"/>
@@ -13466,23 +12343,23 @@
       <c r="EL51" s="95"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="217"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="221"/>
-      <c r="H52" s="221"/>
-      <c r="I52" s="221"/>
-      <c r="J52" s="222"/>
-      <c r="K52" s="222"/>
-      <c r="L52" s="223"/>
-      <c r="M52" s="224"/>
-      <c r="N52" s="223"/>
-      <c r="O52" s="224"/>
-      <c r="P52" s="220"/>
-      <c r="Q52" s="225"/>
-      <c r="R52" s="237"/>
+      <c r="B52" s="244"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="152"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="152"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="165"/>
+      <c r="R52" s="161"/>
       <c r="S52" s="84"/>
       <c r="T52" s="85"/>
       <c r="U52" s="85"/>
@@ -13497,8 +12374,12 @@
       <c r="AD52" s="85"/>
       <c r="AE52" s="85"/>
       <c r="AF52" s="85"/>
-      <c r="AG52" s="85"/>
-      <c r="AH52" s="111"/>
+      <c r="AG52" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH52" s="111" t="s">
+        <v>92</v>
+      </c>
       <c r="AI52" s="111"/>
       <c r="AJ52" s="105"/>
       <c r="AK52" s="105"/>
@@ -13609,37 +12490,39 @@
       <c r="EL52" s="96"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="206"/>
-      <c r="C53" s="238" t="s">
+      <c r="B53" s="243"/>
+      <c r="C53" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="234">
+      <c r="D53" s="155">
         <v>1</v>
       </c>
-      <c r="E53" s="209" t="s">
+      <c r="E53" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="210"/>
-      <c r="G53" s="211" t="s">
+      <c r="F53" s="141"/>
+      <c r="G53" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="211">
+      <c r="H53" s="147">
         <v>43297</v>
       </c>
-      <c r="I53" s="211">
+      <c r="I53" s="147">
         <v>43297</v>
       </c>
-      <c r="J53" s="212"/>
-      <c r="K53" s="212"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="214"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="214"/>
-      <c r="P53" s="210" t="s">
+      <c r="J53" s="149">
+        <v>43297</v>
+      </c>
+      <c r="K53" s="149"/>
+      <c r="L53" s="151"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="153"/>
+      <c r="P53" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q53" s="215"/>
-      <c r="R53" s="236">
+      <c r="Q53" s="164"/>
+      <c r="R53" s="160">
         <v>0</v>
       </c>
       <c r="S53" s="84"/>
@@ -13657,7 +12540,9 @@
       <c r="AE53" s="86"/>
       <c r="AF53" s="86"/>
       <c r="AG53" s="86"/>
-      <c r="AH53" s="110"/>
+      <c r="AH53" s="110" t="s">
+        <v>92</v>
+      </c>
       <c r="AI53" s="110"/>
       <c r="AJ53" s="106"/>
       <c r="AK53" s="106"/>
@@ -13768,23 +12653,23 @@
       <c r="EL53" s="95"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="217"/>
-      <c r="C54" s="239"/>
-      <c r="D54" s="233"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="220"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
-      <c r="J54" s="222"/>
-      <c r="K54" s="222"/>
-      <c r="L54" s="223"/>
-      <c r="M54" s="224"/>
-      <c r="N54" s="223"/>
-      <c r="O54" s="224"/>
-      <c r="P54" s="220"/>
-      <c r="Q54" s="225"/>
-      <c r="R54" s="237"/>
+      <c r="B54" s="244"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
+      <c r="L54" s="152"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="152"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="142"/>
+      <c r="Q54" s="165"/>
+      <c r="R54" s="161"/>
       <c r="S54" s="84"/>
       <c r="T54" s="85"/>
       <c r="U54" s="85"/>
@@ -13800,7 +12685,9 @@
       <c r="AE54" s="85"/>
       <c r="AF54" s="85"/>
       <c r="AG54" s="85"/>
-      <c r="AH54" s="111"/>
+      <c r="AH54" s="111" t="s">
+        <v>92</v>
+      </c>
       <c r="AI54" s="111"/>
       <c r="AJ54" s="105"/>
       <c r="AK54" s="105"/>
@@ -13911,35 +12798,35 @@
       <c r="EL54" s="96"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="206"/>
-      <c r="C55" s="238"/>
-      <c r="D55" s="234">
+      <c r="B55" s="243"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="155">
         <v>2</v>
       </c>
-      <c r="E55" s="209" t="s">
+      <c r="E55" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="210"/>
-      <c r="G55" s="211" t="s">
+      <c r="F55" s="141"/>
+      <c r="G55" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="211">
+      <c r="H55" s="147">
         <v>43298</v>
       </c>
-      <c r="I55" s="211">
+      <c r="I55" s="147">
         <v>43298</v>
       </c>
-      <c r="J55" s="212"/>
-      <c r="K55" s="212"/>
-      <c r="L55" s="213"/>
-      <c r="M55" s="214"/>
-      <c r="N55" s="213"/>
-      <c r="O55" s="214"/>
-      <c r="P55" s="210" t="s">
+      <c r="J55" s="149"/>
+      <c r="K55" s="149"/>
+      <c r="L55" s="151"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="151"/>
+      <c r="O55" s="153"/>
+      <c r="P55" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q55" s="215"/>
-      <c r="R55" s="236">
+      <c r="Q55" s="164"/>
+      <c r="R55" s="160">
         <v>0</v>
       </c>
       <c r="S55" s="84"/>
@@ -14068,23 +12955,23 @@
       <c r="EL55" s="95"/>
     </row>
     <row r="56" spans="2:142" ht="9" customHeight="1">
-      <c r="B56" s="217"/>
-      <c r="C56" s="239"/>
-      <c r="D56" s="235"/>
-      <c r="E56" s="219"/>
-      <c r="F56" s="220"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="221"/>
-      <c r="J56" s="222"/>
-      <c r="K56" s="222"/>
-      <c r="L56" s="223"/>
-      <c r="M56" s="224"/>
-      <c r="N56" s="223"/>
-      <c r="O56" s="224"/>
-      <c r="P56" s="220"/>
-      <c r="Q56" s="225"/>
-      <c r="R56" s="237"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="154"/>
+      <c r="P56" s="142"/>
+      <c r="Q56" s="165"/>
+      <c r="R56" s="161"/>
       <c r="S56" s="84"/>
       <c r="T56" s="85"/>
       <c r="U56" s="85"/>
@@ -14211,37 +13098,37 @@
       <c r="EL56" s="96"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="206"/>
-      <c r="C57" s="238" t="s">
+      <c r="B57" s="243"/>
+      <c r="C57" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="232">
+      <c r="D57" s="157">
         <v>1</v>
       </c>
-      <c r="E57" s="209" t="s">
+      <c r="E57" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="210"/>
-      <c r="G57" s="211" t="s">
+      <c r="F57" s="141"/>
+      <c r="G57" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="211">
+      <c r="H57" s="147">
         <v>43299</v>
       </c>
-      <c r="I57" s="211">
+      <c r="I57" s="147">
         <v>43299</v>
       </c>
-      <c r="J57" s="212"/>
-      <c r="K57" s="212"/>
-      <c r="L57" s="213"/>
-      <c r="M57" s="214"/>
-      <c r="N57" s="213"/>
-      <c r="O57" s="214"/>
-      <c r="P57" s="210" t="s">
+      <c r="J57" s="149"/>
+      <c r="K57" s="149"/>
+      <c r="L57" s="151"/>
+      <c r="M57" s="153"/>
+      <c r="N57" s="151"/>
+      <c r="O57" s="153"/>
+      <c r="P57" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q57" s="215"/>
-      <c r="R57" s="236">
+      <c r="Q57" s="164"/>
+      <c r="R57" s="160">
         <v>0</v>
       </c>
       <c r="S57" s="84"/>
@@ -14370,23 +13257,23 @@
       <c r="EL57" s="95"/>
     </row>
     <row r="58" spans="2:142" ht="9" customHeight="1">
-      <c r="B58" s="217"/>
-      <c r="C58" s="239"/>
-      <c r="D58" s="235"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="221"/>
-      <c r="H58" s="221"/>
-      <c r="I58" s="221"/>
-      <c r="J58" s="222"/>
-      <c r="K58" s="222"/>
-      <c r="L58" s="223"/>
-      <c r="M58" s="224"/>
-      <c r="N58" s="223"/>
-      <c r="O58" s="224"/>
-      <c r="P58" s="220"/>
-      <c r="Q58" s="225"/>
-      <c r="R58" s="237"/>
+      <c r="B58" s="244"/>
+      <c r="C58" s="242"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="150"/>
+      <c r="K58" s="150"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="154"/>
+      <c r="P58" s="142"/>
+      <c r="Q58" s="165"/>
+      <c r="R58" s="161"/>
       <c r="S58" s="84"/>
       <c r="T58" s="85"/>
       <c r="U58" s="85"/>
@@ -14513,35 +13400,35 @@
       <c r="EL58" s="96"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="206"/>
-      <c r="C59" s="238"/>
-      <c r="D59" s="232">
+      <c r="B59" s="243"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="157">
         <v>2</v>
       </c>
-      <c r="E59" s="209" t="s">
+      <c r="E59" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="210"/>
-      <c r="G59" s="211" t="s">
+      <c r="F59" s="141"/>
+      <c r="G59" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="211">
+      <c r="H59" s="147">
         <v>43300</v>
       </c>
-      <c r="I59" s="211">
+      <c r="I59" s="147">
         <v>43300</v>
       </c>
-      <c r="J59" s="212"/>
-      <c r="K59" s="212"/>
-      <c r="L59" s="213"/>
-      <c r="M59" s="214"/>
-      <c r="N59" s="213"/>
-      <c r="O59" s="214"/>
-      <c r="P59" s="210" t="s">
+      <c r="J59" s="149"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="153"/>
+      <c r="N59" s="151"/>
+      <c r="O59" s="153"/>
+      <c r="P59" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q59" s="215"/>
-      <c r="R59" s="236">
+      <c r="Q59" s="164"/>
+      <c r="R59" s="160">
         <v>0</v>
       </c>
       <c r="S59" s="84"/>
@@ -14670,23 +13557,23 @@
       <c r="EL59" s="95"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="217"/>
-      <c r="C60" s="239"/>
-      <c r="D60" s="233"/>
-      <c r="E60" s="219"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="221"/>
-      <c r="H60" s="221"/>
-      <c r="I60" s="221"/>
-      <c r="J60" s="222"/>
-      <c r="K60" s="222"/>
-      <c r="L60" s="223"/>
-      <c r="M60" s="224"/>
-      <c r="N60" s="223"/>
-      <c r="O60" s="224"/>
-      <c r="P60" s="220"/>
-      <c r="Q60" s="225"/>
-      <c r="R60" s="237"/>
+      <c r="B60" s="244"/>
+      <c r="C60" s="242"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="154"/>
+      <c r="P60" s="142"/>
+      <c r="Q60" s="165"/>
+      <c r="R60" s="161"/>
       <c r="S60" s="84"/>
       <c r="T60" s="85"/>
       <c r="U60" s="85"/>
@@ -14813,41 +13700,41 @@
       <c r="EL60" s="96"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="227" t="s">
+      <c r="B61" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="228" t="s">
+      <c r="C61" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="229">
+      <c r="D61" s="145">
         <v>1</v>
       </c>
-      <c r="E61" s="209" t="s">
+      <c r="E61" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="210"/>
-      <c r="G61" s="211" t="s">
+      <c r="F61" s="141"/>
+      <c r="G61" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="211">
+      <c r="H61" s="147">
         <v>43282</v>
       </c>
-      <c r="I61" s="211">
+      <c r="I61" s="147">
         <v>43286</v>
       </c>
-      <c r="J61" s="211">
+      <c r="J61" s="147">
         <v>43282</v>
       </c>
-      <c r="K61" s="211"/>
-      <c r="L61" s="213"/>
-      <c r="M61" s="214"/>
-      <c r="N61" s="213"/>
-      <c r="O61" s="214"/>
-      <c r="P61" s="210" t="s">
+      <c r="K61" s="147"/>
+      <c r="L61" s="151"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="153"/>
+      <c r="P61" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q61" s="215"/>
-      <c r="R61" s="236">
+      <c r="Q61" s="164"/>
+      <c r="R61" s="160">
         <v>0.8</v>
       </c>
       <c r="S61" s="106" t="s">
@@ -14990,23 +13877,23 @@
       <c r="EL61" s="95"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="230"/>
-      <c r="C62" s="228"/>
-      <c r="D62" s="231"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="220"/>
-      <c r="G62" s="221"/>
-      <c r="H62" s="221"/>
-      <c r="I62" s="221"/>
-      <c r="J62" s="221"/>
-      <c r="K62" s="221"/>
-      <c r="L62" s="223"/>
-      <c r="M62" s="224"/>
-      <c r="N62" s="223"/>
-      <c r="O62" s="224"/>
-      <c r="P62" s="220"/>
-      <c r="Q62" s="225"/>
-      <c r="R62" s="226"/>
+      <c r="B62" s="240"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="152"/>
+      <c r="M62" s="154"/>
+      <c r="N62" s="152"/>
+      <c r="O62" s="154"/>
+      <c r="P62" s="142"/>
+      <c r="Q62" s="165"/>
+      <c r="R62" s="163"/>
       <c r="S62" s="105" t="s">
         <v>92</v>
       </c>
@@ -15147,41 +14034,41 @@
       <c r="EL62" s="96"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="227"/>
-      <c r="C63" s="228" t="s">
+      <c r="B63" s="239"/>
+      <c r="C63" s="229" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="229">
+      <c r="D63" s="145">
         <v>1</v>
       </c>
-      <c r="E63" s="209" t="s">
+      <c r="E63" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="210"/>
-      <c r="G63" s="211" t="s">
+      <c r="F63" s="141"/>
+      <c r="G63" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="211">
+      <c r="H63" s="147">
         <v>43282</v>
       </c>
-      <c r="I63" s="211">
+      <c r="I63" s="147">
         <v>43283</v>
       </c>
-      <c r="J63" s="212">
+      <c r="J63" s="149">
         <v>43282</v>
       </c>
-      <c r="K63" s="212">
+      <c r="K63" s="149">
         <v>43283</v>
       </c>
-      <c r="L63" s="213"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="214"/>
-      <c r="P63" s="210" t="s">
+      <c r="L63" s="151"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="151"/>
+      <c r="O63" s="153"/>
+      <c r="P63" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q63" s="215"/>
-      <c r="R63" s="236">
+      <c r="Q63" s="164"/>
+      <c r="R63" s="160">
         <v>1</v>
       </c>
       <c r="S63" s="106" t="s">
@@ -15314,23 +14201,23 @@
       <c r="EL63" s="95"/>
     </row>
     <row r="64" spans="2:142" ht="9" customHeight="1">
-      <c r="B64" s="230"/>
-      <c r="C64" s="228"/>
-      <c r="D64" s="231"/>
-      <c r="E64" s="219"/>
-      <c r="F64" s="220"/>
-      <c r="G64" s="221"/>
-      <c r="H64" s="221"/>
-      <c r="I64" s="221"/>
-      <c r="J64" s="222"/>
-      <c r="K64" s="222"/>
-      <c r="L64" s="223"/>
-      <c r="M64" s="224"/>
-      <c r="N64" s="223"/>
-      <c r="O64" s="224"/>
-      <c r="P64" s="220"/>
-      <c r="Q64" s="225"/>
-      <c r="R64" s="226"/>
+      <c r="B64" s="240"/>
+      <c r="C64" s="229"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="152"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="152"/>
+      <c r="O64" s="154"/>
+      <c r="P64" s="142"/>
+      <c r="Q64" s="165"/>
+      <c r="R64" s="163"/>
       <c r="S64" s="105" t="s">
         <v>92</v>
       </c>
@@ -15461,43 +14348,43 @@
       <c r="EL64" s="96"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="227"/>
-      <c r="C65" s="238" t="s">
+      <c r="B65" s="239"/>
+      <c r="C65" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="232">
+      <c r="D65" s="157">
         <v>1</v>
       </c>
-      <c r="E65" s="209" t="s">
+      <c r="E65" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="210"/>
-      <c r="G65" s="211" t="s">
+      <c r="F65" s="141"/>
+      <c r="G65" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H65" s="211">
+      <c r="H65" s="147">
         <v>43282</v>
       </c>
-      <c r="I65" s="211">
+      <c r="I65" s="147">
         <v>43283</v>
       </c>
-      <c r="J65" s="212">
+      <c r="J65" s="149">
         <v>43282</v>
       </c>
-      <c r="K65" s="212">
+      <c r="K65" s="149">
         <v>43283</v>
       </c>
-      <c r="L65" s="213"/>
-      <c r="M65" s="214"/>
-      <c r="N65" s="213"/>
-      <c r="O65" s="214" t="s">
+      <c r="L65" s="151"/>
+      <c r="M65" s="153"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="P65" s="210" t="s">
+      <c r="P65" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q65" s="215"/>
-      <c r="R65" s="236">
+      <c r="Q65" s="164"/>
+      <c r="R65" s="160">
         <v>1</v>
       </c>
       <c r="S65" s="106" t="s">
@@ -15630,23 +14517,23 @@
       <c r="EL65" s="95"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="230"/>
-      <c r="C66" s="239"/>
-      <c r="D66" s="233"/>
-      <c r="E66" s="219"/>
-      <c r="F66" s="220"/>
-      <c r="G66" s="221"/>
-      <c r="H66" s="221"/>
-      <c r="I66" s="221"/>
-      <c r="J66" s="222"/>
-      <c r="K66" s="222"/>
-      <c r="L66" s="223"/>
-      <c r="M66" s="224"/>
-      <c r="N66" s="223"/>
-      <c r="O66" s="224"/>
-      <c r="P66" s="220"/>
-      <c r="Q66" s="225"/>
-      <c r="R66" s="226"/>
+      <c r="B66" s="240"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="152"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="152"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="142"/>
+      <c r="Q66" s="165"/>
+      <c r="R66" s="163"/>
       <c r="S66" s="105" t="s">
         <v>92</v>
       </c>
@@ -15777,37 +14664,37 @@
       <c r="EL66" s="96"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="227"/>
-      <c r="C67" s="238" t="s">
+      <c r="B67" s="239"/>
+      <c r="C67" s="241" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="234">
+      <c r="D67" s="155">
         <v>1</v>
       </c>
-      <c r="E67" s="209" t="s">
+      <c r="E67" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="210"/>
-      <c r="G67" s="211" t="s">
+      <c r="F67" s="141"/>
+      <c r="G67" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H67" s="211">
+      <c r="H67" s="147">
         <v>43296</v>
       </c>
-      <c r="I67" s="211">
+      <c r="I67" s="147">
         <v>43297</v>
       </c>
-      <c r="J67" s="212"/>
-      <c r="K67" s="212"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="214"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="214"/>
-      <c r="P67" s="210" t="s">
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="151"/>
+      <c r="M67" s="153"/>
+      <c r="N67" s="151"/>
+      <c r="O67" s="153"/>
+      <c r="P67" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q67" s="215"/>
-      <c r="R67" s="236">
+      <c r="Q67" s="164"/>
+      <c r="R67" s="160">
         <v>0</v>
       </c>
       <c r="S67" s="84"/>
@@ -15936,23 +14823,23 @@
       <c r="EL67" s="95"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="230"/>
-      <c r="C68" s="239"/>
-      <c r="D68" s="233"/>
-      <c r="E68" s="219"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="221"/>
-      <c r="H68" s="221"/>
-      <c r="I68" s="221"/>
-      <c r="J68" s="222"/>
-      <c r="K68" s="222"/>
-      <c r="L68" s="223"/>
-      <c r="M68" s="224"/>
-      <c r="N68" s="223"/>
-      <c r="O68" s="224"/>
-      <c r="P68" s="220"/>
-      <c r="Q68" s="225"/>
-      <c r="R68" s="226"/>
+      <c r="B68" s="240"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="150"/>
+      <c r="L68" s="152"/>
+      <c r="M68" s="154"/>
+      <c r="N68" s="152"/>
+      <c r="O68" s="154"/>
+      <c r="P68" s="142"/>
+      <c r="Q68" s="165"/>
+      <c r="R68" s="163"/>
       <c r="S68" s="84"/>
       <c r="T68" s="85"/>
       <c r="U68" s="85"/>
@@ -16079,41 +14966,41 @@
       <c r="EL68" s="96"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="227"/>
-      <c r="C69" s="238" t="s">
+      <c r="B69" s="239"/>
+      <c r="C69" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="234">
+      <c r="D69" s="155">
         <v>1</v>
       </c>
-      <c r="E69" s="209" t="s">
+      <c r="E69" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="F69" s="210"/>
-      <c r="G69" s="211" t="s">
+      <c r="F69" s="141"/>
+      <c r="G69" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="211">
+      <c r="H69" s="147">
         <v>43284</v>
       </c>
-      <c r="I69" s="211">
+      <c r="I69" s="147">
         <v>43284</v>
       </c>
-      <c r="J69" s="211">
+      <c r="J69" s="147">
         <v>43284</v>
       </c>
-      <c r="K69" s="211">
+      <c r="K69" s="147">
         <v>43284</v>
       </c>
-      <c r="L69" s="213"/>
-      <c r="M69" s="214"/>
-      <c r="N69" s="213"/>
-      <c r="O69" s="214"/>
-      <c r="P69" s="210" t="s">
+      <c r="L69" s="151"/>
+      <c r="M69" s="153"/>
+      <c r="N69" s="151"/>
+      <c r="O69" s="153"/>
+      <c r="P69" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="Q69" s="215"/>
-      <c r="R69" s="236">
+      <c r="Q69" s="164"/>
+      <c r="R69" s="160">
         <v>1</v>
       </c>
       <c r="S69" s="106"/>
@@ -16244,23 +15131,23 @@
       <c r="EL69" s="95"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="230"/>
-      <c r="C70" s="239"/>
-      <c r="D70" s="235"/>
-      <c r="E70" s="219"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="221"/>
-      <c r="H70" s="221"/>
-      <c r="I70" s="221"/>
-      <c r="J70" s="221"/>
-      <c r="K70" s="221"/>
-      <c r="L70" s="223"/>
-      <c r="M70" s="224"/>
-      <c r="N70" s="223"/>
-      <c r="O70" s="224"/>
-      <c r="P70" s="220"/>
-      <c r="Q70" s="225"/>
-      <c r="R70" s="226"/>
+      <c r="B70" s="240"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="152"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="142"/>
+      <c r="Q70" s="165"/>
+      <c r="R70" s="163"/>
       <c r="S70" s="105"/>
       <c r="T70" s="85"/>
       <c r="U70" s="105" t="s">
@@ -16389,39 +15276,39 @@
       <c r="EL70" s="96"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="227" t="s">
+      <c r="B71" s="239" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="238" t="s">
+      <c r="C71" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="232">
+      <c r="D71" s="157">
         <v>1</v>
       </c>
-      <c r="E71" s="209" t="s">
+      <c r="E71" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="210"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="211">
+      <c r="F71" s="141"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="147">
         <v>43285</v>
       </c>
-      <c r="I71" s="211">
+      <c r="I71" s="147">
         <v>43311</v>
       </c>
-      <c r="J71" s="211">
+      <c r="J71" s="147">
         <v>43285</v>
       </c>
-      <c r="K71" s="212"/>
-      <c r="L71" s="213"/>
-      <c r="M71" s="214"/>
-      <c r="N71" s="213"/>
-      <c r="O71" s="214"/>
-      <c r="P71" s="244" t="s">
+      <c r="K71" s="149"/>
+      <c r="L71" s="151"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="151"/>
+      <c r="O71" s="153"/>
+      <c r="P71" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="Q71" s="215"/>
-      <c r="R71" s="236">
+      <c r="Q71" s="164"/>
+      <c r="R71" s="160">
         <v>0.5</v>
       </c>
       <c r="S71" s="84"/>
@@ -16444,7 +15331,9 @@
         <v>92</v>
       </c>
       <c r="AB71" s="86"/>
-      <c r="AC71" s="86"/>
+      <c r="AC71" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AD71" s="86"/>
       <c r="AE71" s="86"/>
       <c r="AF71" s="86"/>
@@ -16560,23 +15449,23 @@
       <c r="EL71" s="95"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="230"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="235"/>
-      <c r="E72" s="219"/>
-      <c r="F72" s="220"/>
-      <c r="G72" s="221"/>
-      <c r="H72" s="221"/>
-      <c r="I72" s="221"/>
-      <c r="J72" s="221"/>
-      <c r="K72" s="222"/>
-      <c r="L72" s="223"/>
-      <c r="M72" s="224"/>
-      <c r="N72" s="223"/>
-      <c r="O72" s="224"/>
-      <c r="P72" s="253"/>
-      <c r="Q72" s="225"/>
-      <c r="R72" s="226"/>
+      <c r="B72" s="240"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="148"/>
+      <c r="I72" s="148"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="150"/>
+      <c r="L72" s="152"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="152"/>
+      <c r="O72" s="154"/>
+      <c r="P72" s="168"/>
+      <c r="Q72" s="165"/>
+      <c r="R72" s="163"/>
       <c r="S72" s="84"/>
       <c r="T72" s="85"/>
       <c r="U72" s="85"/>
@@ -16597,7 +15486,9 @@
         <v>92</v>
       </c>
       <c r="AB72" s="85"/>
-      <c r="AC72" s="85"/>
+      <c r="AC72" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AD72" s="85"/>
       <c r="AE72" s="85"/>
       <c r="AF72" s="85"/>
@@ -16713,37 +15604,37 @@
       <c r="EL72" s="96"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="227"/>
-      <c r="C73" s="238" t="s">
+      <c r="B73" s="239"/>
+      <c r="C73" s="241" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="232">
+      <c r="D73" s="157">
         <v>1</v>
       </c>
-      <c r="E73" s="209" t="s">
+      <c r="E73" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="210"/>
-      <c r="G73" s="211"/>
-      <c r="H73" s="211">
+      <c r="F73" s="141"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="147">
         <v>43285</v>
       </c>
-      <c r="I73" s="211">
+      <c r="I73" s="147">
         <v>43311</v>
       </c>
-      <c r="J73" s="211">
+      <c r="J73" s="147">
         <v>43285</v>
       </c>
-      <c r="K73" s="212"/>
-      <c r="L73" s="213"/>
-      <c r="M73" s="214"/>
-      <c r="N73" s="213"/>
-      <c r="O73" s="214"/>
-      <c r="P73" s="244" t="s">
+      <c r="K73" s="149"/>
+      <c r="L73" s="151"/>
+      <c r="M73" s="153"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="153"/>
+      <c r="P73" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="Q73" s="215"/>
-      <c r="R73" s="236">
+      <c r="Q73" s="164"/>
+      <c r="R73" s="160">
         <v>0.5</v>
       </c>
       <c r="S73" s="84"/>
@@ -16766,12 +15657,18 @@
         <v>92</v>
       </c>
       <c r="AB73" s="86"/>
-      <c r="AC73" s="86"/>
+      <c r="AC73" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AD73" s="86"/>
       <c r="AE73" s="86"/>
       <c r="AF73" s="86"/>
-      <c r="AG73" s="86"/>
-      <c r="AH73" s="110"/>
+      <c r="AG73" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH73" s="110" t="s">
+        <v>92</v>
+      </c>
       <c r="AI73" s="110"/>
       <c r="AJ73" s="106"/>
       <c r="AK73" s="106"/>
@@ -16882,23 +15779,23 @@
       <c r="EL73" s="95"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="230"/>
-      <c r="C74" s="239"/>
-      <c r="D74" s="233"/>
-      <c r="E74" s="219"/>
-      <c r="F74" s="220"/>
-      <c r="G74" s="221"/>
-      <c r="H74" s="221"/>
-      <c r="I74" s="221"/>
-      <c r="J74" s="221"/>
-      <c r="K74" s="222"/>
-      <c r="L74" s="223"/>
-      <c r="M74" s="224"/>
-      <c r="N74" s="223"/>
-      <c r="O74" s="224"/>
-      <c r="P74" s="253"/>
-      <c r="Q74" s="225"/>
-      <c r="R74" s="226"/>
+      <c r="B74" s="240"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="152"/>
+      <c r="M74" s="154"/>
+      <c r="N74" s="152"/>
+      <c r="O74" s="154"/>
+      <c r="P74" s="168"/>
+      <c r="Q74" s="165"/>
+      <c r="R74" s="163"/>
       <c r="S74" s="84"/>
       <c r="T74" s="85"/>
       <c r="U74" s="85"/>
@@ -16919,12 +15816,18 @@
         <v>92</v>
       </c>
       <c r="AB74" s="85"/>
-      <c r="AC74" s="85"/>
+      <c r="AC74" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AD74" s="85"/>
       <c r="AE74" s="85"/>
       <c r="AF74" s="85"/>
-      <c r="AG74" s="85"/>
-      <c r="AH74" s="111"/>
+      <c r="AG74" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH74" s="111" t="s">
+        <v>92</v>
+      </c>
       <c r="AI74" s="111"/>
       <c r="AJ74" s="105"/>
       <c r="AK74" s="105"/>
@@ -17035,37 +15938,37 @@
       <c r="EL74" s="96"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="227"/>
-      <c r="C75" s="228" t="s">
+      <c r="B75" s="239"/>
+      <c r="C75" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="229">
+      <c r="D75" s="145">
         <v>1</v>
       </c>
-      <c r="E75" s="209" t="s">
+      <c r="E75" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="F75" s="210"/>
-      <c r="G75" s="211"/>
-      <c r="H75" s="211">
+      <c r="F75" s="141"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="147">
         <v>43285</v>
       </c>
-      <c r="I75" s="211">
+      <c r="I75" s="147">
         <v>43311</v>
       </c>
-      <c r="J75" s="211">
+      <c r="J75" s="147">
         <v>43285</v>
       </c>
-      <c r="K75" s="211"/>
-      <c r="L75" s="213"/>
-      <c r="M75" s="214"/>
-      <c r="N75" s="213"/>
-      <c r="O75" s="214"/>
-      <c r="P75" s="244" t="s">
+      <c r="K75" s="147"/>
+      <c r="L75" s="151"/>
+      <c r="M75" s="153"/>
+      <c r="N75" s="151"/>
+      <c r="O75" s="153"/>
+      <c r="P75" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="Q75" s="215"/>
-      <c r="R75" s="236">
+      <c r="Q75" s="164"/>
+      <c r="R75" s="160">
         <v>0.5</v>
       </c>
       <c r="S75" s="84"/>
@@ -17088,7 +15991,9 @@
         <v>92</v>
       </c>
       <c r="AB75" s="86"/>
-      <c r="AC75" s="86"/>
+      <c r="AC75" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="AD75" s="86"/>
       <c r="AE75" s="86"/>
       <c r="AF75" s="86"/>
@@ -17204,23 +16109,23 @@
       <c r="EL75" s="95"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="230"/>
-      <c r="C76" s="228"/>
-      <c r="D76" s="231"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="220"/>
-      <c r="G76" s="221"/>
-      <c r="H76" s="221"/>
-      <c r="I76" s="221"/>
-      <c r="J76" s="221"/>
-      <c r="K76" s="221"/>
-      <c r="L76" s="223"/>
-      <c r="M76" s="224"/>
-      <c r="N76" s="223"/>
-      <c r="O76" s="224"/>
-      <c r="P76" s="253"/>
-      <c r="Q76" s="225"/>
-      <c r="R76" s="226"/>
+      <c r="B76" s="240"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="162"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="154"/>
+      <c r="N76" s="152"/>
+      <c r="O76" s="154"/>
+      <c r="P76" s="168"/>
+      <c r="Q76" s="165"/>
+      <c r="R76" s="163"/>
       <c r="S76" s="84"/>
       <c r="T76" s="85"/>
       <c r="U76" s="85"/>
@@ -17241,7 +16146,9 @@
         <v>92</v>
       </c>
       <c r="AB76" s="85"/>
-      <c r="AC76" s="85"/>
+      <c r="AC76" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="AD76" s="85"/>
       <c r="AE76" s="85"/>
       <c r="AF76" s="85"/>
@@ -17357,35 +16264,35 @@
       <c r="EL76" s="96"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="227" t="s">
+      <c r="B77" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="228"/>
-      <c r="D77" s="229">
+      <c r="C77" s="229"/>
+      <c r="D77" s="145">
         <v>1</v>
       </c>
-      <c r="E77" s="209" t="s">
+      <c r="E77" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="F77" s="210"/>
-      <c r="G77" s="211"/>
-      <c r="H77" s="211">
+      <c r="F77" s="141"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="147">
         <v>43303</v>
       </c>
-      <c r="I77" s="211">
+      <c r="I77" s="147">
         <v>43306</v>
       </c>
-      <c r="J77" s="211"/>
-      <c r="K77" s="211"/>
-      <c r="L77" s="213"/>
-      <c r="M77" s="214"/>
-      <c r="N77" s="213"/>
-      <c r="O77" s="214"/>
-      <c r="P77" s="210" t="s">
+      <c r="J77" s="147"/>
+      <c r="K77" s="147"/>
+      <c r="L77" s="151"/>
+      <c r="M77" s="153"/>
+      <c r="N77" s="151"/>
+      <c r="O77" s="153"/>
+      <c r="P77" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q77" s="215"/>
-      <c r="R77" s="236">
+      <c r="Q77" s="164"/>
+      <c r="R77" s="160">
         <v>0</v>
       </c>
       <c r="S77" s="84"/>
@@ -17514,23 +16421,23 @@
       <c r="EL77" s="95"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="230"/>
-      <c r="C78" s="228"/>
-      <c r="D78" s="233"/>
-      <c r="E78" s="219"/>
-      <c r="F78" s="220"/>
-      <c r="G78" s="221"/>
-      <c r="H78" s="221"/>
-      <c r="I78" s="221"/>
-      <c r="J78" s="221"/>
-      <c r="K78" s="221"/>
-      <c r="L78" s="223"/>
-      <c r="M78" s="224"/>
-      <c r="N78" s="223"/>
-      <c r="O78" s="224"/>
-      <c r="P78" s="220"/>
-      <c r="Q78" s="225"/>
-      <c r="R78" s="226"/>
+      <c r="B78" s="240"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="159"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="154"/>
+      <c r="N78" s="152"/>
+      <c r="O78" s="154"/>
+      <c r="P78" s="142"/>
+      <c r="Q78" s="165"/>
+      <c r="R78" s="163"/>
       <c r="S78" s="84"/>
       <c r="T78" s="85"/>
       <c r="U78" s="85"/>
@@ -17657,33 +16564,33 @@
       <c r="EL78" s="96"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="227"/>
-      <c r="C79" s="228"/>
-      <c r="D79" s="229">
+      <c r="B79" s="239"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="145">
         <v>2</v>
       </c>
-      <c r="E79" s="209" t="s">
+      <c r="E79" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="210"/>
-      <c r="G79" s="211"/>
-      <c r="H79" s="211">
+      <c r="F79" s="141"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147">
         <v>43303</v>
       </c>
-      <c r="I79" s="211">
+      <c r="I79" s="147">
         <v>43306</v>
       </c>
-      <c r="J79" s="211"/>
-      <c r="K79" s="211"/>
-      <c r="L79" s="213"/>
-      <c r="M79" s="214"/>
-      <c r="N79" s="213"/>
-      <c r="O79" s="214"/>
-      <c r="P79" s="210" t="s">
+      <c r="J79" s="147"/>
+      <c r="K79" s="147"/>
+      <c r="L79" s="151"/>
+      <c r="M79" s="153"/>
+      <c r="N79" s="151"/>
+      <c r="O79" s="153"/>
+      <c r="P79" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="Q79" s="215"/>
-      <c r="R79" s="236">
+      <c r="Q79" s="164"/>
+      <c r="R79" s="160">
         <v>0</v>
       </c>
       <c r="S79" s="84"/>
@@ -17812,23 +16719,23 @@
       <c r="EL79" s="95"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="230"/>
-      <c r="C80" s="228"/>
-      <c r="D80" s="233"/>
-      <c r="E80" s="219"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="221"/>
-      <c r="H80" s="221"/>
-      <c r="I80" s="221"/>
-      <c r="J80" s="221"/>
-      <c r="K80" s="221"/>
-      <c r="L80" s="223"/>
-      <c r="M80" s="224"/>
-      <c r="N80" s="223"/>
-      <c r="O80" s="224"/>
-      <c r="P80" s="220"/>
-      <c r="Q80" s="225"/>
-      <c r="R80" s="226"/>
+      <c r="B80" s="240"/>
+      <c r="C80" s="229"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="159"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="148"/>
+      <c r="K80" s="148"/>
+      <c r="L80" s="152"/>
+      <c r="M80" s="154"/>
+      <c r="N80" s="152"/>
+      <c r="O80" s="154"/>
+      <c r="P80" s="142"/>
+      <c r="Q80" s="165"/>
+      <c r="R80" s="163"/>
       <c r="S80" s="84"/>
       <c r="T80" s="85"/>
       <c r="U80" s="85"/>
@@ -17955,23 +16862,35 @@
       <c r="EL80" s="96"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="227"/>
-      <c r="C81" s="228"/>
-      <c r="D81" s="229"/>
-      <c r="E81" s="209"/>
-      <c r="F81" s="210"/>
-      <c r="G81" s="211"/>
-      <c r="H81" s="211"/>
-      <c r="I81" s="211"/>
-      <c r="J81" s="211"/>
-      <c r="K81" s="211"/>
-      <c r="L81" s="213"/>
-      <c r="M81" s="214"/>
-      <c r="N81" s="213"/>
-      <c r="O81" s="214"/>
-      <c r="P81" s="210"/>
-      <c r="Q81" s="215"/>
-      <c r="R81" s="236"/>
+      <c r="B81" s="239" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="229"/>
+      <c r="D81" s="145">
+        <v>1</v>
+      </c>
+      <c r="E81" s="158"/>
+      <c r="F81" s="141"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="147">
+        <v>43298</v>
+      </c>
+      <c r="I81" s="147">
+        <v>43301</v>
+      </c>
+      <c r="J81" s="147"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="151"/>
+      <c r="M81" s="153"/>
+      <c r="N81" s="151"/>
+      <c r="O81" s="153"/>
+      <c r="P81" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q81" s="164"/>
+      <c r="R81" s="160">
+        <v>0</v>
+      </c>
       <c r="S81" s="84"/>
       <c r="T81" s="87"/>
       <c r="U81" s="86"/>
@@ -18098,23 +17017,23 @@
       <c r="EL81" s="95"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="230"/>
-      <c r="C82" s="228"/>
-      <c r="D82" s="231"/>
-      <c r="E82" s="219"/>
-      <c r="F82" s="220"/>
-      <c r="G82" s="221"/>
-      <c r="H82" s="221"/>
-      <c r="I82" s="221"/>
-      <c r="J82" s="221"/>
-      <c r="K82" s="221"/>
-      <c r="L82" s="223"/>
-      <c r="M82" s="224"/>
-      <c r="N82" s="223"/>
-      <c r="O82" s="224"/>
-      <c r="P82" s="220"/>
-      <c r="Q82" s="225"/>
-      <c r="R82" s="226"/>
+      <c r="B82" s="240"/>
+      <c r="C82" s="229"/>
+      <c r="D82" s="162"/>
+      <c r="E82" s="159"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="148"/>
+      <c r="H82" s="148"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="148"/>
+      <c r="K82" s="148"/>
+      <c r="L82" s="152"/>
+      <c r="M82" s="154"/>
+      <c r="N82" s="152"/>
+      <c r="O82" s="154"/>
+      <c r="P82" s="142"/>
+      <c r="Q82" s="165"/>
+      <c r="R82" s="163"/>
       <c r="S82" s="84"/>
       <c r="T82" s="85"/>
       <c r="U82" s="85"/>
@@ -18241,23 +17160,35 @@
       <c r="EL82" s="96"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="227"/>
-      <c r="C83" s="228"/>
-      <c r="D83" s="229"/>
-      <c r="E83" s="209"/>
-      <c r="F83" s="210"/>
-      <c r="G83" s="211"/>
-      <c r="H83" s="211"/>
-      <c r="I83" s="211"/>
-      <c r="J83" s="212"/>
-      <c r="K83" s="212"/>
-      <c r="L83" s="213"/>
-      <c r="M83" s="214"/>
-      <c r="N83" s="213"/>
-      <c r="O83" s="214"/>
-      <c r="P83" s="210"/>
-      <c r="Q83" s="215"/>
-      <c r="R83" s="216"/>
+      <c r="B83" s="239" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="229"/>
+      <c r="D83" s="145">
+        <v>1</v>
+      </c>
+      <c r="E83" s="158"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147">
+        <v>43298</v>
+      </c>
+      <c r="I83" s="147">
+        <v>43301</v>
+      </c>
+      <c r="J83" s="149"/>
+      <c r="K83" s="149"/>
+      <c r="L83" s="151"/>
+      <c r="M83" s="153"/>
+      <c r="N83" s="151"/>
+      <c r="O83" s="153"/>
+      <c r="P83" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q83" s="164"/>
+      <c r="R83" s="160">
+        <v>0</v>
+      </c>
       <c r="S83" s="84"/>
       <c r="T83" s="87"/>
       <c r="U83" s="86"/>
@@ -18384,23 +17315,23 @@
       <c r="EL83" s="95"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="230"/>
-      <c r="C84" s="228"/>
-      <c r="D84" s="231"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="220"/>
-      <c r="G84" s="221"/>
-      <c r="H84" s="221"/>
-      <c r="I84" s="221"/>
-      <c r="J84" s="222"/>
-      <c r="K84" s="222"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="224"/>
-      <c r="N84" s="223"/>
-      <c r="O84" s="224"/>
-      <c r="P84" s="220"/>
-      <c r="Q84" s="225"/>
-      <c r="R84" s="226"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="142"/>
+      <c r="G84" s="148"/>
+      <c r="H84" s="148"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="150"/>
+      <c r="K84" s="150"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="154"/>
+      <c r="N84" s="152"/>
+      <c r="O84" s="154"/>
+      <c r="P84" s="142"/>
+      <c r="Q84" s="165"/>
+      <c r="R84" s="163"/>
       <c r="S84" s="84"/>
       <c r="T84" s="85"/>
       <c r="U84" s="85"/>
@@ -18527,23 +17458,23 @@
       <c r="EL84" s="96"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="227"/>
-      <c r="C85" s="238"/>
-      <c r="D85" s="232"/>
-      <c r="E85" s="209"/>
-      <c r="F85" s="210"/>
-      <c r="G85" s="211"/>
-      <c r="H85" s="211"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="212"/>
-      <c r="K85" s="212"/>
-      <c r="L85" s="213"/>
-      <c r="M85" s="214"/>
-      <c r="N85" s="213"/>
-      <c r="O85" s="214"/>
-      <c r="P85" s="210"/>
-      <c r="Q85" s="215"/>
-      <c r="R85" s="216"/>
+      <c r="B85" s="239"/>
+      <c r="C85" s="241"/>
+      <c r="D85" s="157"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="147"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="147"/>
+      <c r="J85" s="149"/>
+      <c r="K85" s="149"/>
+      <c r="L85" s="151"/>
+      <c r="M85" s="153"/>
+      <c r="N85" s="151"/>
+      <c r="O85" s="153"/>
+      <c r="P85" s="141"/>
+      <c r="Q85" s="164"/>
+      <c r="R85" s="166"/>
       <c r="S85" s="84"/>
       <c r="T85" s="87"/>
       <c r="U85" s="86"/>
@@ -18670,23 +17601,23 @@
       <c r="EL85" s="95"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="230"/>
-      <c r="C86" s="239"/>
-      <c r="D86" s="233"/>
-      <c r="E86" s="219"/>
-      <c r="F86" s="220"/>
-      <c r="G86" s="221"/>
-      <c r="H86" s="221"/>
-      <c r="I86" s="221"/>
-      <c r="J86" s="222"/>
-      <c r="K86" s="222"/>
-      <c r="L86" s="223"/>
-      <c r="M86" s="224"/>
-      <c r="N86" s="223"/>
-      <c r="O86" s="224"/>
-      <c r="P86" s="220"/>
-      <c r="Q86" s="225"/>
-      <c r="R86" s="226"/>
+      <c r="B86" s="240"/>
+      <c r="C86" s="242"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="159"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="150"/>
+      <c r="L86" s="152"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="152"/>
+      <c r="O86" s="154"/>
+      <c r="P86" s="142"/>
+      <c r="Q86" s="165"/>
+      <c r="R86" s="163"/>
       <c r="S86" s="84"/>
       <c r="T86" s="85"/>
       <c r="U86" s="85"/>
@@ -18813,23 +17744,23 @@
       <c r="EL86" s="96"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="227"/>
-      <c r="C87" s="238"/>
-      <c r="D87" s="234"/>
-      <c r="E87" s="209"/>
-      <c r="F87" s="210"/>
-      <c r="G87" s="211"/>
-      <c r="H87" s="211"/>
-      <c r="I87" s="211"/>
-      <c r="J87" s="212"/>
-      <c r="K87" s="212"/>
-      <c r="L87" s="213"/>
-      <c r="M87" s="214"/>
-      <c r="N87" s="213"/>
-      <c r="O87" s="214"/>
-      <c r="P87" s="210"/>
-      <c r="Q87" s="215"/>
-      <c r="R87" s="216"/>
+      <c r="B87" s="239"/>
+      <c r="C87" s="241"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="141"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="149"/>
+      <c r="K87" s="149"/>
+      <c r="L87" s="151"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="141"/>
+      <c r="Q87" s="164"/>
+      <c r="R87" s="166"/>
       <c r="S87" s="84"/>
       <c r="T87" s="87"/>
       <c r="U87" s="86"/>
@@ -18956,23 +17887,23 @@
       <c r="EL87" s="95"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="230"/>
-      <c r="C88" s="239"/>
-      <c r="D88" s="233"/>
-      <c r="E88" s="219"/>
-      <c r="F88" s="220"/>
-      <c r="G88" s="221"/>
-      <c r="H88" s="221"/>
-      <c r="I88" s="221"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="223"/>
-      <c r="M88" s="224"/>
-      <c r="N88" s="223"/>
-      <c r="O88" s="224"/>
-      <c r="P88" s="220"/>
-      <c r="Q88" s="225"/>
-      <c r="R88" s="226"/>
+      <c r="B88" s="240"/>
+      <c r="C88" s="242"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="159"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="150"/>
+      <c r="L88" s="152"/>
+      <c r="M88" s="154"/>
+      <c r="N88" s="152"/>
+      <c r="O88" s="154"/>
+      <c r="P88" s="142"/>
+      <c r="Q88" s="165"/>
+      <c r="R88" s="163"/>
       <c r="S88" s="84"/>
       <c r="T88" s="85"/>
       <c r="U88" s="85"/>
@@ -19099,23 +18030,23 @@
       <c r="EL88" s="96"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="206"/>
-      <c r="C89" s="238"/>
-      <c r="D89" s="234"/>
-      <c r="E89" s="209"/>
-      <c r="F89" s="210"/>
-      <c r="G89" s="211"/>
-      <c r="H89" s="211"/>
-      <c r="I89" s="211"/>
-      <c r="J89" s="212"/>
-      <c r="K89" s="212"/>
-      <c r="L89" s="213"/>
-      <c r="M89" s="214"/>
-      <c r="N89" s="213"/>
-      <c r="O89" s="214"/>
-      <c r="P89" s="210"/>
-      <c r="Q89" s="215"/>
-      <c r="R89" s="216"/>
+      <c r="B89" s="243"/>
+      <c r="C89" s="241"/>
+      <c r="D89" s="155"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="147"/>
+      <c r="J89" s="149"/>
+      <c r="K89" s="149"/>
+      <c r="L89" s="151"/>
+      <c r="M89" s="153"/>
+      <c r="N89" s="151"/>
+      <c r="O89" s="153"/>
+      <c r="P89" s="141"/>
+      <c r="Q89" s="164"/>
+      <c r="R89" s="166"/>
       <c r="S89" s="84"/>
       <c r="T89" s="87"/>
       <c r="U89" s="86"/>
@@ -19242,23 +18173,23 @@
       <c r="EL89" s="95"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="217"/>
-      <c r="C90" s="239"/>
-      <c r="D90" s="235"/>
-      <c r="E90" s="219"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="221"/>
-      <c r="H90" s="221"/>
-      <c r="I90" s="221"/>
-      <c r="J90" s="222"/>
-      <c r="K90" s="222"/>
-      <c r="L90" s="223"/>
-      <c r="M90" s="224"/>
-      <c r="N90" s="223"/>
-      <c r="O90" s="224"/>
-      <c r="P90" s="220"/>
-      <c r="Q90" s="225"/>
-      <c r="R90" s="226"/>
+      <c r="B90" s="244"/>
+      <c r="C90" s="242"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="159"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="148"/>
+      <c r="H90" s="148"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="150"/>
+      <c r="L90" s="152"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="152"/>
+      <c r="O90" s="154"/>
+      <c r="P90" s="142"/>
+      <c r="Q90" s="165"/>
+      <c r="R90" s="163"/>
       <c r="S90" s="84"/>
       <c r="T90" s="85"/>
       <c r="U90" s="85"/>
@@ -19385,23 +18316,23 @@
       <c r="EL90" s="96"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="206"/>
-      <c r="C91" s="238"/>
-      <c r="D91" s="232"/>
-      <c r="E91" s="209"/>
-      <c r="F91" s="210"/>
-      <c r="G91" s="211"/>
-      <c r="H91" s="211"/>
-      <c r="I91" s="211"/>
-      <c r="J91" s="212"/>
-      <c r="K91" s="212"/>
-      <c r="L91" s="213"/>
-      <c r="M91" s="214"/>
-      <c r="N91" s="213"/>
-      <c r="O91" s="214"/>
-      <c r="P91" s="210"/>
-      <c r="Q91" s="215"/>
-      <c r="R91" s="216"/>
+      <c r="B91" s="243"/>
+      <c r="C91" s="241"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="141"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="149"/>
+      <c r="K91" s="149"/>
+      <c r="L91" s="151"/>
+      <c r="M91" s="153"/>
+      <c r="N91" s="151"/>
+      <c r="O91" s="153"/>
+      <c r="P91" s="141"/>
+      <c r="Q91" s="164"/>
+      <c r="R91" s="166"/>
       <c r="S91" s="84"/>
       <c r="T91" s="87"/>
       <c r="U91" s="86"/>
@@ -19528,23 +18459,23 @@
       <c r="EL91" s="95"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="217"/>
-      <c r="C92" s="239"/>
-      <c r="D92" s="235"/>
-      <c r="E92" s="219"/>
-      <c r="F92" s="220"/>
-      <c r="G92" s="221"/>
-      <c r="H92" s="221"/>
-      <c r="I92" s="221"/>
-      <c r="J92" s="222"/>
-      <c r="K92" s="222"/>
-      <c r="L92" s="223"/>
-      <c r="M92" s="224"/>
-      <c r="N92" s="223"/>
-      <c r="O92" s="224"/>
-      <c r="P92" s="220"/>
-      <c r="Q92" s="225"/>
-      <c r="R92" s="226"/>
+      <c r="B92" s="244"/>
+      <c r="C92" s="242"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="142"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="150"/>
+      <c r="K92" s="150"/>
+      <c r="L92" s="152"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="152"/>
+      <c r="O92" s="154"/>
+      <c r="P92" s="142"/>
+      <c r="Q92" s="165"/>
+      <c r="R92" s="163"/>
       <c r="S92" s="84"/>
       <c r="T92" s="85"/>
       <c r="U92" s="85"/>
@@ -19671,23 +18602,23 @@
       <c r="EL92" s="96"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="206"/>
-      <c r="C93" s="238"/>
-      <c r="D93" s="232"/>
-      <c r="E93" s="209"/>
-      <c r="F93" s="210"/>
-      <c r="G93" s="211"/>
-      <c r="H93" s="211"/>
-      <c r="I93" s="211"/>
-      <c r="J93" s="212"/>
-      <c r="K93" s="212"/>
-      <c r="L93" s="213"/>
-      <c r="M93" s="214"/>
-      <c r="N93" s="213"/>
-      <c r="O93" s="214"/>
-      <c r="P93" s="210"/>
-      <c r="Q93" s="215"/>
-      <c r="R93" s="216"/>
+      <c r="B93" s="243"/>
+      <c r="C93" s="241"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="141"/>
+      <c r="G93" s="147"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="147"/>
+      <c r="J93" s="149"/>
+      <c r="K93" s="149"/>
+      <c r="L93" s="151"/>
+      <c r="M93" s="153"/>
+      <c r="N93" s="151"/>
+      <c r="O93" s="153"/>
+      <c r="P93" s="141"/>
+      <c r="Q93" s="164"/>
+      <c r="R93" s="166"/>
       <c r="S93" s="84"/>
       <c r="T93" s="87"/>
       <c r="U93" s="86"/>
@@ -19814,23 +18745,23 @@
       <c r="EL93" s="95"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="217"/>
-      <c r="C94" s="239"/>
-      <c r="D94" s="233"/>
-      <c r="E94" s="219"/>
-      <c r="F94" s="220"/>
-      <c r="G94" s="221"/>
-      <c r="H94" s="221"/>
-      <c r="I94" s="221"/>
-      <c r="J94" s="222"/>
-      <c r="K94" s="222"/>
-      <c r="L94" s="223"/>
-      <c r="M94" s="224"/>
-      <c r="N94" s="223"/>
-      <c r="O94" s="224"/>
-      <c r="P94" s="220"/>
-      <c r="Q94" s="225"/>
-      <c r="R94" s="226"/>
+      <c r="B94" s="244"/>
+      <c r="C94" s="242"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="148"/>
+      <c r="H94" s="148"/>
+      <c r="I94" s="148"/>
+      <c r="J94" s="150"/>
+      <c r="K94" s="150"/>
+      <c r="L94" s="152"/>
+      <c r="M94" s="154"/>
+      <c r="N94" s="152"/>
+      <c r="O94" s="154"/>
+      <c r="P94" s="142"/>
+      <c r="Q94" s="165"/>
+      <c r="R94" s="163"/>
       <c r="S94" s="84"/>
       <c r="T94" s="85"/>
       <c r="U94" s="85"/>
@@ -19957,23 +18888,23 @@
       <c r="EL94" s="96"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="206"/>
-      <c r="C95" s="207"/>
-      <c r="D95" s="208"/>
-      <c r="E95" s="209"/>
-      <c r="F95" s="210"/>
-      <c r="G95" s="211"/>
-      <c r="H95" s="211"/>
-      <c r="I95" s="211"/>
-      <c r="J95" s="212"/>
-      <c r="K95" s="212"/>
-      <c r="L95" s="213"/>
-      <c r="M95" s="214"/>
-      <c r="N95" s="213"/>
-      <c r="O95" s="214"/>
-      <c r="P95" s="210"/>
-      <c r="Q95" s="215"/>
-      <c r="R95" s="216"/>
+      <c r="B95" s="243"/>
+      <c r="C95" s="250"/>
+      <c r="D95" s="200"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="141"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="149"/>
+      <c r="K95" s="149"/>
+      <c r="L95" s="151"/>
+      <c r="M95" s="153"/>
+      <c r="N95" s="151"/>
+      <c r="O95" s="153"/>
+      <c r="P95" s="141"/>
+      <c r="Q95" s="164"/>
+      <c r="R95" s="166"/>
       <c r="S95" s="84"/>
       <c r="T95" s="87"/>
       <c r="U95" s="86"/>
@@ -20100,23 +19031,23 @@
       <c r="EL95" s="95"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="217"/>
-      <c r="C96" s="207"/>
-      <c r="D96" s="218"/>
-      <c r="E96" s="219"/>
-      <c r="F96" s="220"/>
-      <c r="G96" s="221"/>
-      <c r="H96" s="221"/>
-      <c r="I96" s="221"/>
-      <c r="J96" s="222"/>
-      <c r="K96" s="222"/>
-      <c r="L96" s="223"/>
-      <c r="M96" s="224"/>
-      <c r="N96" s="223"/>
-      <c r="O96" s="224"/>
-      <c r="P96" s="220"/>
-      <c r="Q96" s="225"/>
-      <c r="R96" s="226"/>
+      <c r="B96" s="244"/>
+      <c r="C96" s="250"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="159"/>
+      <c r="F96" s="142"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="148"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="152"/>
+      <c r="M96" s="154"/>
+      <c r="N96" s="152"/>
+      <c r="O96" s="154"/>
+      <c r="P96" s="142"/>
+      <c r="Q96" s="165"/>
+      <c r="R96" s="163"/>
       <c r="S96" s="84"/>
       <c r="T96" s="85"/>
       <c r="U96" s="85"/>
@@ -20243,23 +19174,23 @@
       <c r="EL96" s="96"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="206"/>
-      <c r="C97" s="207"/>
-      <c r="D97" s="208"/>
-      <c r="E97" s="209"/>
-      <c r="F97" s="210"/>
-      <c r="G97" s="211"/>
-      <c r="H97" s="211"/>
-      <c r="I97" s="211"/>
-      <c r="J97" s="212"/>
-      <c r="K97" s="212"/>
-      <c r="L97" s="213"/>
-      <c r="M97" s="214"/>
-      <c r="N97" s="213"/>
-      <c r="O97" s="214"/>
-      <c r="P97" s="210"/>
-      <c r="Q97" s="215"/>
-      <c r="R97" s="216"/>
+      <c r="B97" s="243"/>
+      <c r="C97" s="250"/>
+      <c r="D97" s="200"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="141"/>
+      <c r="G97" s="147"/>
+      <c r="H97" s="147"/>
+      <c r="I97" s="147"/>
+      <c r="J97" s="149"/>
+      <c r="K97" s="149"/>
+      <c r="L97" s="151"/>
+      <c r="M97" s="153"/>
+      <c r="N97" s="151"/>
+      <c r="O97" s="153"/>
+      <c r="P97" s="141"/>
+      <c r="Q97" s="164"/>
+      <c r="R97" s="166"/>
       <c r="S97" s="84"/>
       <c r="T97" s="87"/>
       <c r="U97" s="86"/>
@@ -20386,23 +19317,23 @@
       <c r="EL97" s="95"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="217"/>
-      <c r="C98" s="207"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="219"/>
-      <c r="F98" s="220"/>
-      <c r="G98" s="221"/>
-      <c r="H98" s="221"/>
-      <c r="I98" s="221"/>
-      <c r="J98" s="222"/>
-      <c r="K98" s="222"/>
-      <c r="L98" s="223"/>
-      <c r="M98" s="224"/>
-      <c r="N98" s="223"/>
-      <c r="O98" s="224"/>
-      <c r="P98" s="220"/>
-      <c r="Q98" s="225"/>
-      <c r="R98" s="226"/>
+      <c r="B98" s="244"/>
+      <c r="C98" s="250"/>
+      <c r="D98" s="201"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="150"/>
+      <c r="L98" s="152"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="152"/>
+      <c r="O98" s="154"/>
+      <c r="P98" s="142"/>
+      <c r="Q98" s="165"/>
+      <c r="R98" s="163"/>
       <c r="S98" s="84"/>
       <c r="T98" s="85"/>
       <c r="U98" s="85"/>
@@ -20529,23 +19460,23 @@
       <c r="EL98" s="96"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="204"/>
-      <c r="C99" s="173"/>
-      <c r="D99" s="145"/>
-      <c r="E99" s="155"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="149"/>
-      <c r="K99" s="149"/>
-      <c r="L99" s="151"/>
-      <c r="M99" s="153"/>
-      <c r="N99" s="151"/>
-      <c r="O99" s="153"/>
-      <c r="P99" s="141"/>
-      <c r="Q99" s="159"/>
-      <c r="R99" s="157"/>
+      <c r="B99" s="251"/>
+      <c r="C99" s="253"/>
+      <c r="D99" s="195"/>
+      <c r="E99" s="193"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="185"/>
+      <c r="H99" s="185"/>
+      <c r="I99" s="185"/>
+      <c r="J99" s="179"/>
+      <c r="K99" s="179"/>
+      <c r="L99" s="181"/>
+      <c r="M99" s="183"/>
+      <c r="N99" s="181"/>
+      <c r="O99" s="183"/>
+      <c r="P99" s="187"/>
+      <c r="Q99" s="189"/>
+      <c r="R99" s="191"/>
       <c r="S99" s="84"/>
       <c r="T99" s="87"/>
       <c r="U99" s="86"/>
@@ -20672,23 +19603,23 @@
       <c r="EL99" s="95"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="205"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="146"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="148"/>
-      <c r="H100" s="148"/>
-      <c r="I100" s="148"/>
-      <c r="J100" s="150"/>
-      <c r="K100" s="150"/>
-      <c r="L100" s="152"/>
-      <c r="M100" s="154"/>
-      <c r="N100" s="152"/>
-      <c r="O100" s="154"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="160"/>
-      <c r="R100" s="158"/>
+      <c r="B100" s="252"/>
+      <c r="C100" s="253"/>
+      <c r="D100" s="196"/>
+      <c r="E100" s="194"/>
+      <c r="F100" s="188"/>
+      <c r="G100" s="186"/>
+      <c r="H100" s="186"/>
+      <c r="I100" s="186"/>
+      <c r="J100" s="180"/>
+      <c r="K100" s="180"/>
+      <c r="L100" s="182"/>
+      <c r="M100" s="184"/>
+      <c r="N100" s="182"/>
+      <c r="O100" s="184"/>
+      <c r="P100" s="188"/>
+      <c r="Q100" s="190"/>
+      <c r="R100" s="192"/>
       <c r="S100" s="84"/>
       <c r="T100" s="85"/>
       <c r="U100" s="85"/>
@@ -20815,23 +19746,23 @@
       <c r="EL100" s="96"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="204"/>
-      <c r="C101" s="173"/>
-      <c r="D101" s="145"/>
-      <c r="E101" s="155"/>
-      <c r="F101" s="141"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="149"/>
-      <c r="K101" s="149"/>
-      <c r="L101" s="151"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="151"/>
-      <c r="O101" s="153"/>
-      <c r="P101" s="141"/>
-      <c r="Q101" s="159"/>
-      <c r="R101" s="157"/>
+      <c r="B101" s="251"/>
+      <c r="C101" s="253"/>
+      <c r="D101" s="195"/>
+      <c r="E101" s="193"/>
+      <c r="F101" s="187"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="185"/>
+      <c r="I101" s="185"/>
+      <c r="J101" s="179"/>
+      <c r="K101" s="179"/>
+      <c r="L101" s="181"/>
+      <c r="M101" s="183"/>
+      <c r="N101" s="181"/>
+      <c r="O101" s="183"/>
+      <c r="P101" s="187"/>
+      <c r="Q101" s="189"/>
+      <c r="R101" s="191"/>
       <c r="S101" s="84"/>
       <c r="T101" s="87"/>
       <c r="U101" s="86"/>
@@ -20958,23 +19889,23 @@
       <c r="EL101" s="95"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="205"/>
-      <c r="C102" s="173"/>
-      <c r="D102" s="146"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="148"/>
-      <c r="J102" s="150"/>
-      <c r="K102" s="150"/>
-      <c r="L102" s="152"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="152"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="160"/>
-      <c r="R102" s="158"/>
+      <c r="B102" s="252"/>
+      <c r="C102" s="253"/>
+      <c r="D102" s="196"/>
+      <c r="E102" s="194"/>
+      <c r="F102" s="188"/>
+      <c r="G102" s="186"/>
+      <c r="H102" s="186"/>
+      <c r="I102" s="186"/>
+      <c r="J102" s="180"/>
+      <c r="K102" s="180"/>
+      <c r="L102" s="182"/>
+      <c r="M102" s="184"/>
+      <c r="N102" s="182"/>
+      <c r="O102" s="184"/>
+      <c r="P102" s="188"/>
+      <c r="Q102" s="190"/>
+      <c r="R102" s="192"/>
       <c r="S102" s="84"/>
       <c r="T102" s="85"/>
       <c r="U102" s="85"/>
@@ -21101,23 +20032,23 @@
       <c r="EL102" s="96"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="204"/>
-      <c r="C103" s="173"/>
-      <c r="D103" s="145"/>
-      <c r="E103" s="155"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="149"/>
-      <c r="K103" s="149"/>
-      <c r="L103" s="151"/>
-      <c r="M103" s="153"/>
-      <c r="N103" s="151"/>
-      <c r="O103" s="153"/>
-      <c r="P103" s="141"/>
-      <c r="Q103" s="159"/>
-      <c r="R103" s="157"/>
+      <c r="B103" s="251"/>
+      <c r="C103" s="253"/>
+      <c r="D103" s="195"/>
+      <c r="E103" s="193"/>
+      <c r="F103" s="187"/>
+      <c r="G103" s="185"/>
+      <c r="H103" s="185"/>
+      <c r="I103" s="185"/>
+      <c r="J103" s="179"/>
+      <c r="K103" s="179"/>
+      <c r="L103" s="181"/>
+      <c r="M103" s="183"/>
+      <c r="N103" s="181"/>
+      <c r="O103" s="183"/>
+      <c r="P103" s="187"/>
+      <c r="Q103" s="189"/>
+      <c r="R103" s="191"/>
       <c r="S103" s="84"/>
       <c r="T103" s="87"/>
       <c r="U103" s="86"/>
@@ -21244,23 +20175,23 @@
       <c r="EL103" s="95"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="205"/>
-      <c r="C104" s="173"/>
-      <c r="D104" s="146"/>
-      <c r="E104" s="156"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="148"/>
-      <c r="J104" s="150"/>
-      <c r="K104" s="150"/>
-      <c r="L104" s="152"/>
-      <c r="M104" s="154"/>
-      <c r="N104" s="152"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="142"/>
-      <c r="Q104" s="160"/>
-      <c r="R104" s="158"/>
+      <c r="B104" s="252"/>
+      <c r="C104" s="253"/>
+      <c r="D104" s="196"/>
+      <c r="E104" s="194"/>
+      <c r="F104" s="188"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+      <c r="I104" s="186"/>
+      <c r="J104" s="180"/>
+      <c r="K104" s="180"/>
+      <c r="L104" s="182"/>
+      <c r="M104" s="184"/>
+      <c r="N104" s="182"/>
+      <c r="O104" s="184"/>
+      <c r="P104" s="188"/>
+      <c r="Q104" s="190"/>
+      <c r="R104" s="192"/>
       <c r="S104" s="84"/>
       <c r="T104" s="85"/>
       <c r="U104" s="85"/>
@@ -21387,23 +20318,23 @@
       <c r="EL104" s="96"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="204"/>
-      <c r="C105" s="173"/>
-      <c r="D105" s="145"/>
-      <c r="E105" s="155"/>
-      <c r="F105" s="141"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="149"/>
-      <c r="K105" s="149"/>
-      <c r="L105" s="151"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="151"/>
-      <c r="O105" s="153"/>
-      <c r="P105" s="141"/>
-      <c r="Q105" s="159"/>
-      <c r="R105" s="157"/>
+      <c r="B105" s="251"/>
+      <c r="C105" s="253"/>
+      <c r="D105" s="195"/>
+      <c r="E105" s="193"/>
+      <c r="F105" s="187"/>
+      <c r="G105" s="185"/>
+      <c r="H105" s="185"/>
+      <c r="I105" s="185"/>
+      <c r="J105" s="179"/>
+      <c r="K105" s="179"/>
+      <c r="L105" s="181"/>
+      <c r="M105" s="183"/>
+      <c r="N105" s="181"/>
+      <c r="O105" s="183"/>
+      <c r="P105" s="187"/>
+      <c r="Q105" s="189"/>
+      <c r="R105" s="191"/>
       <c r="S105" s="84"/>
       <c r="T105" s="87"/>
       <c r="U105" s="86"/>
@@ -21530,23 +20461,23 @@
       <c r="EL105" s="95"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="205"/>
-      <c r="C106" s="173"/>
-      <c r="D106" s="146"/>
-      <c r="E106" s="156"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="152"/>
-      <c r="M106" s="154"/>
-      <c r="N106" s="152"/>
-      <c r="O106" s="154"/>
-      <c r="P106" s="142"/>
-      <c r="Q106" s="160"/>
-      <c r="R106" s="158"/>
+      <c r="B106" s="252"/>
+      <c r="C106" s="253"/>
+      <c r="D106" s="196"/>
+      <c r="E106" s="194"/>
+      <c r="F106" s="188"/>
+      <c r="G106" s="186"/>
+      <c r="H106" s="186"/>
+      <c r="I106" s="186"/>
+      <c r="J106" s="180"/>
+      <c r="K106" s="180"/>
+      <c r="L106" s="182"/>
+      <c r="M106" s="184"/>
+      <c r="N106" s="182"/>
+      <c r="O106" s="184"/>
+      <c r="P106" s="188"/>
+      <c r="Q106" s="190"/>
+      <c r="R106" s="192"/>
       <c r="S106" s="84"/>
       <c r="T106" s="85"/>
       <c r="U106" s="85"/>
@@ -21673,23 +20604,23 @@
       <c r="EL106" s="96"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="204"/>
-      <c r="C107" s="173"/>
-      <c r="D107" s="145"/>
-      <c r="E107" s="155"/>
-      <c r="F107" s="141"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="149"/>
-      <c r="K107" s="149"/>
-      <c r="L107" s="151"/>
-      <c r="M107" s="153"/>
-      <c r="N107" s="151"/>
-      <c r="O107" s="153"/>
-      <c r="P107" s="141"/>
-      <c r="Q107" s="159"/>
-      <c r="R107" s="157"/>
+      <c r="B107" s="251"/>
+      <c r="C107" s="253"/>
+      <c r="D107" s="195"/>
+      <c r="E107" s="193"/>
+      <c r="F107" s="187"/>
+      <c r="G107" s="185"/>
+      <c r="H107" s="185"/>
+      <c r="I107" s="185"/>
+      <c r="J107" s="179"/>
+      <c r="K107" s="179"/>
+      <c r="L107" s="181"/>
+      <c r="M107" s="183"/>
+      <c r="N107" s="181"/>
+      <c r="O107" s="183"/>
+      <c r="P107" s="187"/>
+      <c r="Q107" s="189"/>
+      <c r="R107" s="191"/>
       <c r="S107" s="84"/>
       <c r="T107" s="87"/>
       <c r="U107" s="86"/>
@@ -21816,23 +20747,23 @@
       <c r="EL107" s="95"/>
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
-      <c r="B108" s="205"/>
-      <c r="C108" s="173"/>
-      <c r="D108" s="146"/>
-      <c r="E108" s="156"/>
-      <c r="F108" s="142"/>
-      <c r="G108" s="148"/>
-      <c r="H108" s="148"/>
-      <c r="I108" s="148"/>
-      <c r="J108" s="150"/>
-      <c r="K108" s="150"/>
-      <c r="L108" s="152"/>
-      <c r="M108" s="154"/>
-      <c r="N108" s="152"/>
-      <c r="O108" s="154"/>
-      <c r="P108" s="142"/>
-      <c r="Q108" s="160"/>
-      <c r="R108" s="158"/>
+      <c r="B108" s="252"/>
+      <c r="C108" s="253"/>
+      <c r="D108" s="196"/>
+      <c r="E108" s="194"/>
+      <c r="F108" s="188"/>
+      <c r="G108" s="186"/>
+      <c r="H108" s="186"/>
+      <c r="I108" s="186"/>
+      <c r="J108" s="180"/>
+      <c r="K108" s="180"/>
+      <c r="L108" s="182"/>
+      <c r="M108" s="184"/>
+      <c r="N108" s="182"/>
+      <c r="O108" s="184"/>
+      <c r="P108" s="188"/>
+      <c r="Q108" s="190"/>
+      <c r="R108" s="192"/>
       <c r="S108" s="84"/>
       <c r="T108" s="85"/>
       <c r="U108" s="85"/>
@@ -21959,23 +20890,23 @@
       <c r="EL108" s="96"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="199"/>
-      <c r="C109" s="173"/>
-      <c r="D109" s="145"/>
-      <c r="E109" s="155"/>
-      <c r="F109" s="141"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="149"/>
-      <c r="K109" s="149"/>
-      <c r="L109" s="151"/>
-      <c r="M109" s="153"/>
-      <c r="N109" s="151"/>
-      <c r="O109" s="153"/>
-      <c r="P109" s="141"/>
-      <c r="Q109" s="159"/>
-      <c r="R109" s="157"/>
+      <c r="B109" s="254"/>
+      <c r="C109" s="253"/>
+      <c r="D109" s="195"/>
+      <c r="E109" s="193"/>
+      <c r="F109" s="187"/>
+      <c r="G109" s="185"/>
+      <c r="H109" s="185"/>
+      <c r="I109" s="185"/>
+      <c r="J109" s="179"/>
+      <c r="K109" s="179"/>
+      <c r="L109" s="181"/>
+      <c r="M109" s="183"/>
+      <c r="N109" s="181"/>
+      <c r="O109" s="183"/>
+      <c r="P109" s="187"/>
+      <c r="Q109" s="189"/>
+      <c r="R109" s="191"/>
       <c r="S109" s="84"/>
       <c r="T109" s="87"/>
       <c r="U109" s="86"/>
@@ -22102,23 +21033,23 @@
       <c r="EL109" s="95"/>
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
-      <c r="B110" s="200"/>
-      <c r="C110" s="173"/>
-      <c r="D110" s="146"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="150"/>
-      <c r="K110" s="150"/>
-      <c r="L110" s="152"/>
-      <c r="M110" s="154"/>
-      <c r="N110" s="152"/>
-      <c r="O110" s="154"/>
-      <c r="P110" s="142"/>
-      <c r="Q110" s="160"/>
-      <c r="R110" s="158"/>
+      <c r="B110" s="255"/>
+      <c r="C110" s="253"/>
+      <c r="D110" s="196"/>
+      <c r="E110" s="194"/>
+      <c r="F110" s="188"/>
+      <c r="G110" s="186"/>
+      <c r="H110" s="186"/>
+      <c r="I110" s="186"/>
+      <c r="J110" s="180"/>
+      <c r="K110" s="180"/>
+      <c r="L110" s="182"/>
+      <c r="M110" s="184"/>
+      <c r="N110" s="182"/>
+      <c r="O110" s="184"/>
+      <c r="P110" s="188"/>
+      <c r="Q110" s="190"/>
+      <c r="R110" s="192"/>
       <c r="S110" s="84"/>
       <c r="T110" s="85"/>
       <c r="U110" s="85"/>
@@ -22245,23 +21176,23 @@
       <c r="EL110" s="96"/>
     </row>
     <row r="111" spans="2:142" ht="9" customHeight="1">
-      <c r="B111" s="199"/>
-      <c r="C111" s="173"/>
-      <c r="D111" s="145"/>
-      <c r="E111" s="155"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="149"/>
-      <c r="K111" s="149"/>
-      <c r="L111" s="151"/>
-      <c r="M111" s="153"/>
-      <c r="N111" s="151"/>
-      <c r="O111" s="153"/>
-      <c r="P111" s="141"/>
-      <c r="Q111" s="159"/>
-      <c r="R111" s="157"/>
+      <c r="B111" s="254"/>
+      <c r="C111" s="253"/>
+      <c r="D111" s="195"/>
+      <c r="E111" s="193"/>
+      <c r="F111" s="187"/>
+      <c r="G111" s="185"/>
+      <c r="H111" s="185"/>
+      <c r="I111" s="185"/>
+      <c r="J111" s="179"/>
+      <c r="K111" s="179"/>
+      <c r="L111" s="181"/>
+      <c r="M111" s="183"/>
+      <c r="N111" s="181"/>
+      <c r="O111" s="183"/>
+      <c r="P111" s="187"/>
+      <c r="Q111" s="189"/>
+      <c r="R111" s="191"/>
       <c r="S111" s="84"/>
       <c r="T111" s="87"/>
       <c r="U111" s="86"/>
@@ -22388,23 +21319,23 @@
       <c r="EL111" s="95"/>
     </row>
     <row r="112" spans="2:142" ht="9" customHeight="1">
-      <c r="B112" s="200"/>
-      <c r="C112" s="173"/>
-      <c r="D112" s="146"/>
-      <c r="E112" s="156"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
-      <c r="I112" s="148"/>
-      <c r="J112" s="150"/>
-      <c r="K112" s="150"/>
-      <c r="L112" s="152"/>
-      <c r="M112" s="154"/>
-      <c r="N112" s="152"/>
-      <c r="O112" s="154"/>
-      <c r="P112" s="142"/>
-      <c r="Q112" s="160"/>
-      <c r="R112" s="158"/>
+      <c r="B112" s="255"/>
+      <c r="C112" s="253"/>
+      <c r="D112" s="196"/>
+      <c r="E112" s="194"/>
+      <c r="F112" s="188"/>
+      <c r="G112" s="186"/>
+      <c r="H112" s="186"/>
+      <c r="I112" s="186"/>
+      <c r="J112" s="180"/>
+      <c r="K112" s="180"/>
+      <c r="L112" s="182"/>
+      <c r="M112" s="184"/>
+      <c r="N112" s="182"/>
+      <c r="O112" s="184"/>
+      <c r="P112" s="188"/>
+      <c r="Q112" s="190"/>
+      <c r="R112" s="192"/>
       <c r="S112" s="84"/>
       <c r="T112" s="85"/>
       <c r="U112" s="85"/>
@@ -22531,23 +21462,23 @@
       <c r="EL112" s="96"/>
     </row>
     <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="199"/>
-      <c r="C113" s="173"/>
-      <c r="D113" s="145"/>
-      <c r="E113" s="155"/>
-      <c r="F113" s="141"/>
-      <c r="G113" s="147"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="149"/>
-      <c r="K113" s="149"/>
-      <c r="L113" s="151"/>
-      <c r="M113" s="153"/>
-      <c r="N113" s="151"/>
-      <c r="O113" s="153"/>
-      <c r="P113" s="141"/>
-      <c r="Q113" s="159"/>
-      <c r="R113" s="157"/>
+      <c r="B113" s="254"/>
+      <c r="C113" s="253"/>
+      <c r="D113" s="195"/>
+      <c r="E113" s="193"/>
+      <c r="F113" s="187"/>
+      <c r="G113" s="185"/>
+      <c r="H113" s="185"/>
+      <c r="I113" s="185"/>
+      <c r="J113" s="179"/>
+      <c r="K113" s="179"/>
+      <c r="L113" s="181"/>
+      <c r="M113" s="183"/>
+      <c r="N113" s="181"/>
+      <c r="O113" s="183"/>
+      <c r="P113" s="187"/>
+      <c r="Q113" s="189"/>
+      <c r="R113" s="191"/>
       <c r="S113" s="84"/>
       <c r="T113" s="87"/>
       <c r="U113" s="86"/>
@@ -22674,23 +21605,23 @@
       <c r="EL113" s="95"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="200"/>
-      <c r="C114" s="173"/>
-      <c r="D114" s="146"/>
-      <c r="E114" s="156"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="148"/>
-      <c r="H114" s="148"/>
-      <c r="I114" s="148"/>
-      <c r="J114" s="150"/>
-      <c r="K114" s="150"/>
-      <c r="L114" s="152"/>
-      <c r="M114" s="154"/>
-      <c r="N114" s="152"/>
-      <c r="O114" s="154"/>
-      <c r="P114" s="142"/>
-      <c r="Q114" s="160"/>
-      <c r="R114" s="158"/>
+      <c r="B114" s="255"/>
+      <c r="C114" s="253"/>
+      <c r="D114" s="196"/>
+      <c r="E114" s="194"/>
+      <c r="F114" s="188"/>
+      <c r="G114" s="186"/>
+      <c r="H114" s="186"/>
+      <c r="I114" s="186"/>
+      <c r="J114" s="180"/>
+      <c r="K114" s="180"/>
+      <c r="L114" s="182"/>
+      <c r="M114" s="184"/>
+      <c r="N114" s="182"/>
+      <c r="O114" s="184"/>
+      <c r="P114" s="188"/>
+      <c r="Q114" s="190"/>
+      <c r="R114" s="192"/>
       <c r="S114" s="84"/>
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
@@ -22817,23 +21748,23 @@
       <c r="EL114" s="96"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="199"/>
-      <c r="C115" s="173"/>
-      <c r="D115" s="145"/>
-      <c r="E115" s="155"/>
-      <c r="F115" s="141"/>
-      <c r="G115" s="147"/>
-      <c r="H115" s="147"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="149"/>
-      <c r="K115" s="149"/>
-      <c r="L115" s="151"/>
-      <c r="M115" s="153"/>
-      <c r="N115" s="151"/>
-      <c r="O115" s="153"/>
-      <c r="P115" s="141"/>
-      <c r="Q115" s="159"/>
-      <c r="R115" s="157"/>
+      <c r="B115" s="254"/>
+      <c r="C115" s="253"/>
+      <c r="D115" s="195"/>
+      <c r="E115" s="193"/>
+      <c r="F115" s="187"/>
+      <c r="G115" s="185"/>
+      <c r="H115" s="185"/>
+      <c r="I115" s="185"/>
+      <c r="J115" s="179"/>
+      <c r="K115" s="179"/>
+      <c r="L115" s="181"/>
+      <c r="M115" s="183"/>
+      <c r="N115" s="181"/>
+      <c r="O115" s="183"/>
+      <c r="P115" s="187"/>
+      <c r="Q115" s="189"/>
+      <c r="R115" s="191"/>
       <c r="S115" s="84"/>
       <c r="T115" s="87"/>
       <c r="U115" s="86"/>
@@ -22960,23 +21891,23 @@
       <c r="EL115" s="95"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="200"/>
-      <c r="C116" s="173"/>
-      <c r="D116" s="146"/>
-      <c r="E116" s="156"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="148"/>
-      <c r="H116" s="148"/>
-      <c r="I116" s="148"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="150"/>
-      <c r="L116" s="152"/>
-      <c r="M116" s="154"/>
-      <c r="N116" s="152"/>
-      <c r="O116" s="154"/>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="160"/>
-      <c r="R116" s="158"/>
+      <c r="B116" s="255"/>
+      <c r="C116" s="253"/>
+      <c r="D116" s="196"/>
+      <c r="E116" s="194"/>
+      <c r="F116" s="188"/>
+      <c r="G116" s="186"/>
+      <c r="H116" s="186"/>
+      <c r="I116" s="186"/>
+      <c r="J116" s="180"/>
+      <c r="K116" s="180"/>
+      <c r="L116" s="182"/>
+      <c r="M116" s="184"/>
+      <c r="N116" s="182"/>
+      <c r="O116" s="184"/>
+      <c r="P116" s="188"/>
+      <c r="Q116" s="190"/>
+      <c r="R116" s="192"/>
       <c r="S116" s="84"/>
       <c r="T116" s="85"/>
       <c r="U116" s="85"/>
@@ -23103,23 +22034,23 @@
       <c r="EL116" s="96"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="199"/>
-      <c r="C117" s="173"/>
-      <c r="D117" s="145"/>
-      <c r="E117" s="155"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="149"/>
-      <c r="K117" s="149"/>
-      <c r="L117" s="151"/>
-      <c r="M117" s="153"/>
-      <c r="N117" s="151"/>
-      <c r="O117" s="153"/>
-      <c r="P117" s="141"/>
-      <c r="Q117" s="159"/>
-      <c r="R117" s="157"/>
+      <c r="B117" s="254"/>
+      <c r="C117" s="253"/>
+      <c r="D117" s="195"/>
+      <c r="E117" s="193"/>
+      <c r="F117" s="187"/>
+      <c r="G117" s="185"/>
+      <c r="H117" s="185"/>
+      <c r="I117" s="185"/>
+      <c r="J117" s="179"/>
+      <c r="K117" s="179"/>
+      <c r="L117" s="181"/>
+      <c r="M117" s="183"/>
+      <c r="N117" s="181"/>
+      <c r="O117" s="183"/>
+      <c r="P117" s="187"/>
+      <c r="Q117" s="189"/>
+      <c r="R117" s="191"/>
       <c r="S117" s="84"/>
       <c r="T117" s="87"/>
       <c r="U117" s="86"/>
@@ -23246,23 +22177,23 @@
       <c r="EL117" s="95"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="200"/>
-      <c r="C118" s="173"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="156"/>
-      <c r="F118" s="142"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
-      <c r="I118" s="148"/>
-      <c r="J118" s="150"/>
-      <c r="K118" s="150"/>
-      <c r="L118" s="152"/>
-      <c r="M118" s="154"/>
-      <c r="N118" s="152"/>
-      <c r="O118" s="154"/>
-      <c r="P118" s="142"/>
-      <c r="Q118" s="160"/>
-      <c r="R118" s="158"/>
+      <c r="B118" s="255"/>
+      <c r="C118" s="253"/>
+      <c r="D118" s="196"/>
+      <c r="E118" s="194"/>
+      <c r="F118" s="188"/>
+      <c r="G118" s="186"/>
+      <c r="H118" s="186"/>
+      <c r="I118" s="186"/>
+      <c r="J118" s="180"/>
+      <c r="K118" s="180"/>
+      <c r="L118" s="182"/>
+      <c r="M118" s="184"/>
+      <c r="N118" s="182"/>
+      <c r="O118" s="184"/>
+      <c r="P118" s="188"/>
+      <c r="Q118" s="190"/>
+      <c r="R118" s="192"/>
       <c r="S118" s="84"/>
       <c r="T118" s="85"/>
       <c r="U118" s="85"/>
@@ -23389,23 +22320,23 @@
       <c r="EL118" s="96"/>
     </row>
     <row r="119" spans="2:142" ht="9" customHeight="1">
-      <c r="B119" s="199"/>
-      <c r="C119" s="173"/>
-      <c r="D119" s="145"/>
-      <c r="E119" s="155"/>
-      <c r="F119" s="141"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="149"/>
-      <c r="K119" s="149"/>
-      <c r="L119" s="151"/>
-      <c r="M119" s="153"/>
-      <c r="N119" s="151"/>
-      <c r="O119" s="153"/>
-      <c r="P119" s="141"/>
-      <c r="Q119" s="159"/>
-      <c r="R119" s="157"/>
+      <c r="B119" s="254"/>
+      <c r="C119" s="253"/>
+      <c r="D119" s="195"/>
+      <c r="E119" s="193"/>
+      <c r="F119" s="187"/>
+      <c r="G119" s="185"/>
+      <c r="H119" s="185"/>
+      <c r="I119" s="185"/>
+      <c r="J119" s="179"/>
+      <c r="K119" s="179"/>
+      <c r="L119" s="181"/>
+      <c r="M119" s="183"/>
+      <c r="N119" s="181"/>
+      <c r="O119" s="183"/>
+      <c r="P119" s="187"/>
+      <c r="Q119" s="189"/>
+      <c r="R119" s="191"/>
       <c r="S119" s="84"/>
       <c r="T119" s="87"/>
       <c r="U119" s="86"/>
@@ -23532,23 +22463,23 @@
       <c r="EL119" s="95"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="200"/>
-      <c r="C120" s="173"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="156"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="148"/>
-      <c r="H120" s="148"/>
-      <c r="I120" s="148"/>
-      <c r="J120" s="150"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="152"/>
-      <c r="M120" s="154"/>
-      <c r="N120" s="152"/>
-      <c r="O120" s="154"/>
-      <c r="P120" s="142"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="158"/>
+      <c r="B120" s="255"/>
+      <c r="C120" s="253"/>
+      <c r="D120" s="196"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="188"/>
+      <c r="G120" s="186"/>
+      <c r="H120" s="186"/>
+      <c r="I120" s="186"/>
+      <c r="J120" s="180"/>
+      <c r="K120" s="180"/>
+      <c r="L120" s="182"/>
+      <c r="M120" s="184"/>
+      <c r="N120" s="182"/>
+      <c r="O120" s="184"/>
+      <c r="P120" s="188"/>
+      <c r="Q120" s="190"/>
+      <c r="R120" s="192"/>
       <c r="S120" s="84"/>
       <c r="T120" s="85"/>
       <c r="U120" s="85"/>
@@ -23699,6 +22630,20 @@
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="E107:E108"/>
@@ -23708,33 +22653,15 @@
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="E111:E112"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="C113:C114"/>
     <mergeCell ref="E113:E114"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="E103:E104"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="B85:B86"/>
@@ -23745,14 +22672,31 @@
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
     <mergeCell ref="D101:D102"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
     <mergeCell ref="L93:L94"/>
     <mergeCell ref="M93:M94"/>
     <mergeCell ref="N93:N94"/>
@@ -23774,17 +22718,6 @@
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="E69:E70"/>
@@ -23794,22 +22727,18 @@
     <mergeCell ref="J69:J70"/>
     <mergeCell ref="K69:K70"/>
     <mergeCell ref="L69:L70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="Q67:Q68"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="E65:E66"/>
@@ -23829,6 +22758,11 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -23930,12 +22864,16 @@
     <mergeCell ref="H67:H68"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="H53:H54"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="L49:L50"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
@@ -23960,15 +22898,21 @@
     <mergeCell ref="K87:K88"/>
     <mergeCell ref="L87:L88"/>
     <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="N31:N32"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -23989,7 +22933,10 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="N17:N18"/>
     <mergeCell ref="P61:P62"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="E39:E40"/>
@@ -24010,13 +22957,9 @@
     <mergeCell ref="F63:F64"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="O93:O94"/>
@@ -24039,6 +22982,8 @@
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="Q75:Q76"/>
     <mergeCell ref="L83:L84"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="K93:K94"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E11:E12"/>
@@ -24051,9 +22996,12 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
@@ -24061,14 +23009,9 @@
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="R13:R14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="Q9:R10"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N11:N12"/>
@@ -24096,8 +23039,6 @@
     <mergeCell ref="P49:P50"/>
     <mergeCell ref="P51:P52"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
     <mergeCell ref="BZ2:CB2"/>
     <mergeCell ref="CC2:CE2"/>
     <mergeCell ref="CF2:CH2"/>
@@ -24120,6 +23061,8 @@
     <mergeCell ref="Q51:Q52"/>
     <mergeCell ref="R51:R52"/>
     <mergeCell ref="P37:P38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O37:O38"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="K33:K34"/>
@@ -24142,6 +23085,8 @@
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P31:P32"/>
     <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="D105:D106"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="H105:H106"/>
@@ -24166,9 +23111,6 @@
     <mergeCell ref="L71:L72"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="M83:M84"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
     <mergeCell ref="R63:R64"/>
     <mergeCell ref="M71:M72"/>
     <mergeCell ref="N71:N72"/>
@@ -24179,8 +23121,20 @@
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="Q71:Q72"/>
     <mergeCell ref="R71:R72"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
     <mergeCell ref="N37:N38"/>
@@ -24190,20 +23144,9 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
@@ -24218,6 +23161,29 @@
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="F77:F78"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -24234,50 +23200,28 @@
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
     <mergeCell ref="R77:R78"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="G77:G78"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I77:I78"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="H83:H84"/>
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="J83:J84"/>
     <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F77:F78"/>
     <mergeCell ref="F79:F80"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="I79:I80"/>
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="K79:K80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
     <mergeCell ref="G81:G82"/>
     <mergeCell ref="H81:H82"/>
     <mergeCell ref="I81:I82"/>
@@ -24291,17 +23235,6 @@
     <mergeCell ref="M81:M82"/>
     <mergeCell ref="N81:N82"/>
     <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="H85:H86"/>
@@ -24314,7 +23247,6 @@
     <mergeCell ref="O85:O86"/>
     <mergeCell ref="Q85:Q86"/>
     <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="H89:H90"/>
@@ -24327,6 +23259,8 @@
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="I99:I100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
     <mergeCell ref="N103:N104"/>
     <mergeCell ref="O103:O104"/>
     <mergeCell ref="Q103:Q104"/>
@@ -24339,6 +23273,7 @@
     <mergeCell ref="R101:R102"/>
     <mergeCell ref="O101:O102"/>
     <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="L103:L104"/>
     <mergeCell ref="N105:N106"/>
     <mergeCell ref="I91:I92"/>
     <mergeCell ref="J91:J92"/>
@@ -24452,12 +23387,6 @@
     <mergeCell ref="I111:I112"/>
     <mergeCell ref="G113:G114"/>
     <mergeCell ref="H113:H114"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="Q115:Q116"/>
     <mergeCell ref="R115:R116"/>
     <mergeCell ref="P115:P116"/>
     <mergeCell ref="P117:P118"/>
@@ -24471,15 +23400,19 @@
     <mergeCell ref="O119:O120"/>
     <mergeCell ref="Q119:Q120"/>
     <mergeCell ref="R119:R120"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="Q115:Q116"/>
     <mergeCell ref="K117:K118"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E43:E44"/>
@@ -24501,12 +23434,6 @@
     <mergeCell ref="G117:G118"/>
     <mergeCell ref="H117:H118"/>
     <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="L43:L44"/>
@@ -24531,20 +23458,18 @@
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="N57:N58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E55:E56"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="R49:R50"/>
     <mergeCell ref="L47:L48"/>
@@ -24559,12 +23484,11 @@
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
     <mergeCell ref="R61:R62"/>
     <mergeCell ref="G97:G98"/>
     <mergeCell ref="H97:H98"/>
@@ -24581,6 +23505,14 @@
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="I73:I74"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="P67:P68"/>
@@ -24605,8 +23537,6 @@
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="K65:K66"/>
     <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="J53:J54"/>
@@ -24630,6 +23560,7 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="J57:J58"/>
+    <mergeCell ref="N57:N58"/>
     <mergeCell ref="P53:P54"/>
     <mergeCell ref="P55:P56"/>
     <mergeCell ref="P57:P58"/>
@@ -24647,594 +23578,616 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="336" priority="1847" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="1853" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="1848" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="1854" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="334" priority="1855" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="1861" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="1856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="1862" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="1857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="1863" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK120">
-    <cfRule type="expression" dxfId="331" priority="3537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="3543" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="3538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="3544" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="3539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="3545" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B61 B63 B65 B67 B69 B71 B73 J95:K95 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 L11:O20 G11:I20 L95:O120 Q95:R120 G95:I120 Q11:R20">
-    <cfRule type="expression" dxfId="293" priority="4990" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="4996" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="4991" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="4997" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="4992" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="4998" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM120">
-    <cfRule type="expression" dxfId="328" priority="6070" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="6076" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="6071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="6077" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 P13 P15 P17 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119 P19">
-    <cfRule type="expression" dxfId="326" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="245" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="246" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="247" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K20">
-    <cfRule type="expression" dxfId="296" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="175" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="176" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="177" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33 B35 B37 B39 F39 F37 F35 F33">
-    <cfRule type="expression" dxfId="290" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="172" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="173" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$K33="",$I33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="174" stopIfTrue="1">
       <formula>IF(OR(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$Q33&lt;100),TODAY()&gt;=$H33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K21 J23:K23 J25:K25 J27:K27 B21:F21 B23:F23 B25:F25 B27:F27 J29:K29 J31:K31 B29:F29 B31:F31 L21:O32 G21:I32 Q21:R32 G33:G48">
-    <cfRule type="expression" dxfId="284" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="166" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="167" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="168" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21 P23 P25 P27 P29 P31">
-    <cfRule type="expression" dxfId="281" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="163" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="164" stopIfTrue="1">
       <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="165" stopIfTrue="1">
       <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33 C35:E35 C37:E37 C39:E39">
-    <cfRule type="expression" dxfId="278" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="160" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="161" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$K33="",$I33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="162" stopIfTrue="1">
       <formula>IF(OR(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$Q33&lt;100),TODAY()&gt;=$H33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:O40 H33:I40 Q33:R40">
-    <cfRule type="expression" dxfId="272" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="154" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="155" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$K33="",$I33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="156" stopIfTrue="1">
       <formula>IF(OR(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$Q33&lt;100),TODAY()&gt;=$H33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33 P35 P37 P39">
-    <cfRule type="expression" dxfId="269" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="151" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="152" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$K33="",$I33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
       <formula>IF(OR(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$Q33&lt;100),TODAY()&gt;=$H33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K40">
-    <cfRule type="expression" dxfId="266" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="148" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="149" stopIfTrue="1">
       <formula>IF(AND($D33&lt;&gt;"",$K33="",$I33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="150" stopIfTrue="1">
       <formula>IF(OR(AND($D33&lt;&gt;"",$J33&lt;&gt;"",$Q33&lt;100),TODAY()&gt;=$H33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:K65 J67:K67 K71 K73 Q65:R66 L65:O74 F73 F71 F69 F67 F65 G65:I74 Q69:R74">
-    <cfRule type="expression" dxfId="263" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="145" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="146" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="147" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65 P69">
-    <cfRule type="expression" dxfId="260" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="142" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="143" stopIfTrue="1">
       <formula>IF(AND($D65&lt;&gt;"",$K65="",$I65&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($D65&lt;&gt;"",$J65&lt;&gt;"",$Q65&lt;100),TODAY()&gt;=$H65),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:O64 Q63:R64 G63:I64 F63 F61 J63:K63">
-    <cfRule type="expression" dxfId="257" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="139" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="140" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="expression" dxfId="254" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="136" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="137" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="138" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:E61">
-    <cfRule type="expression" dxfId="251" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="133" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="134" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="135" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:E63 C65:E65 C67:E67 C69:E69 C71:E71 C73:E73">
-    <cfRule type="expression" dxfId="248" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="130" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="131" stopIfTrue="1">
       <formula>IF(AND($D63&lt;&gt;"",$K63="",$I63&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="132" stopIfTrue="1">
       <formula>IF(OR(AND($D63&lt;&gt;"",$J63&lt;&gt;"",$Q63&lt;100),TODAY()&gt;=$H63),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:O62 H61:I62 Q61:R62">
-    <cfRule type="expression" dxfId="245" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="127" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="128" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="129" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:K62">
-    <cfRule type="expression" dxfId="239" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="121" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="122" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75 B77 B79 B81 B83 B85 B87 B89 B91 B93">
-    <cfRule type="expression" dxfId="236" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="118" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="119" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="120" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:K85 J87:K87 J89:K89 J91:K91 J93:K93 G85:I94 Q85:R94 L85:O94 F93 F91 F89 F87 F85">
-    <cfRule type="expression" dxfId="233" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="115" stopIfTrue="1">
       <formula>IF(AND($D85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="116" stopIfTrue="1">
       <formula>IF(AND($D85&lt;&gt;"",$K85="",$I85&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="117" stopIfTrue="1">
       <formula>IF(OR(AND($D85&lt;&gt;"",$J85&lt;&gt;"",$Q85&lt;100),TODAY()&gt;=$H85),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P85 P87 P89 P91 P93">
-    <cfRule type="expression" dxfId="230" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="112" stopIfTrue="1">
       <formula>IF(AND($D85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="113" stopIfTrue="1">
       <formula>IF(AND($D85&lt;&gt;"",$K85="",$I85&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="114" stopIfTrue="1">
       <formula>IF(OR(AND($D85&lt;&gt;"",$J85&lt;&gt;"",$Q85&lt;100),TODAY()&gt;=$H85),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:K83 L83:O84 Q83:R84 G83:I84 F83 F81 F79 F77 F75 G75:G82">
-    <cfRule type="expression" dxfId="227" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="J83:K83 L83:O84 Q83:R84 F83 F81 F79 F77 F75 G75:G84">
+    <cfRule type="expression" dxfId="98" priority="109" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="110" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="111" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="expression" dxfId="224" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="106" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="107" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="108" stopIfTrue="1">
       <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:E75 C77:E77 C79:E79 C81:E81">
-    <cfRule type="expression" dxfId="221" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="103" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="104" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="105" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83:E83 C85:E85 C87:E87 C89:E89 C91:E91 C93:E93">
-    <cfRule type="expression" dxfId="218" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="100" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="101" stopIfTrue="1">
       <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="102" stopIfTrue="1">
       <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75:O82 Q75:R82 H77:I82">
-    <cfRule type="expression" dxfId="215" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="97" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="98" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="99" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P77 P79 P81">
-    <cfRule type="expression" dxfId="212" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="94" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="95" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$K77="",$I77&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$Q77&lt;100),TODAY()&gt;=$H77),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:K82 K75:K76">
-    <cfRule type="expression" dxfId="209" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="91" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="92" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 B43 B45 B47 B49 B51 B53 B55 B57 B59">
-    <cfRule type="expression" dxfId="206" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59 F57 F55 F53 F51">
-    <cfRule type="expression" dxfId="203" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="85" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>IF(AND($D51&lt;&gt;"",$K51="",$I51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="87" stopIfTrue="1">
       <formula>IF(OR(AND($D51&lt;&gt;"",$J51&lt;&gt;"",$Q51&lt;100),TODAY()&gt;=$H51),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49 F47 F45 F43 F41">
-    <cfRule type="expression" dxfId="197" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="79" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="80" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="81" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:E41 C43:E43 C45:E45 C47:E47">
-    <cfRule type="expression" dxfId="191" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:E49 C51:E51 C53:E53 C55:E55 C57:E57 C59:E59">
-    <cfRule type="expression" dxfId="188" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:O48 H41:I48 Q41:R48">
-    <cfRule type="expression" dxfId="185" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41 P43 P45 P47">
-    <cfRule type="expression" dxfId="182" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:K44 J47:K48">
-    <cfRule type="expression" dxfId="179" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
       <formula>IF(AND($D41&lt;&gt;"",$K41="",$I41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
       <formula>IF(OR(AND($D41&lt;&gt;"",$J41&lt;&gt;"",$Q41&lt;100),TODAY()&gt;=$H41),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:K49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 L49:O60 G49:I60 Q49:R60">
-    <cfRule type="expression" dxfId="176" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49 P51 P53 P55 P57 P59 P61">
-    <cfRule type="expression" dxfId="173" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
       <formula>IF(AND($D49&lt;&gt;"",$K49="",$I49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
       <formula>IF(OR(AND($D49&lt;&gt;"",$J49&lt;&gt;"",$Q49&lt;100),TODAY()&gt;=$H49),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:G62">
-    <cfRule type="expression" dxfId="170" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
       <formula>IF(AND($D61&lt;&gt;"",$K61="",$I61&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
       <formula>IF(OR(AND($D61&lt;&gt;"",$J61&lt;&gt;"",$Q61&lt;100),TODAY()&gt;=$H61),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:K46">
-    <cfRule type="expression" dxfId="167" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
       <formula>IF(AND($D45&lt;&gt;"",$K45="",$I45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
       <formula>IF(OR(AND($D45&lt;&gt;"",$J45&lt;&gt;"",$Q45&lt;100),TODAY()&gt;=$H45),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:K70">
-    <cfRule type="expression" dxfId="164" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
       <formula>IF(AND($D69&lt;&gt;"",$K69="",$I69&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
       <formula>IF(OR(AND($D69&lt;&gt;"",$J69&lt;&gt;"",$Q69&lt;100),TODAY()&gt;=$H69),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75:I76">
-    <cfRule type="expression" dxfId="161" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:J74">
-    <cfRule type="expression" dxfId="152" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:J76">
-    <cfRule type="expression" dxfId="149" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P71">
-    <cfRule type="expression" dxfId="140" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
       <formula>IF(AND($D71&lt;&gt;"",$K71="",$I71&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>IF(OR(AND($D71&lt;&gt;"",$J71&lt;&gt;"",$Q71&lt;100),TODAY()&gt;=$H71),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P73">
-    <cfRule type="expression" dxfId="137" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>IF(AND($D73&lt;&gt;"",$K73="",$I73&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>IF(OR(AND($D73&lt;&gt;"",$J73&lt;&gt;"",$Q73&lt;100),TODAY()&gt;=$H73),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="expression" dxfId="134" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>IF(AND($D75&lt;&gt;"",$K75="",$I75&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>IF(OR(AND($D75&lt;&gt;"",$J75&lt;&gt;"",$Q75&lt;100),TODAY()&gt;=$H75),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K80">
-    <cfRule type="expression" dxfId="131" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>IF(AND($D77&lt;&gt;"",$K77="",$I77&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>IF(OR(AND($D77&lt;&gt;"",$J77&lt;&gt;"",$Q77&lt;100),TODAY()&gt;=$H77),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q67:R68">
-    <cfRule type="expression" dxfId="128" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="125" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>IF(AND($D67&lt;&gt;"",$K67="",$I67&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>IF(OR(AND($D67&lt;&gt;"",$J67&lt;&gt;"",$Q67&lt;100),TODAY()&gt;=$H67),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="H83:H84">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83:I84">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>IF(AND($D83&lt;&gt;"",$K83="",$I83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($D83&lt;&gt;"",$J83&lt;&gt;"",$Q83&lt;100),TODAY()&gt;=$H83),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:Q120">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -25270,11 +24223,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="258"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="71" t="s">
